--- a/doc/journal/Arbeitsjournal.xlsx
+++ b/doc/journal/Arbeitsjournal.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphi/Dropbox/YARX/10_Projekte/20_Mobile/21_iOS/1610_Spektrometer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Documents\Projects\Spektrometer\portableSpectrometer\doc\journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="26760" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsjournal" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Andreas Lüscher" sheetId="5" r:id="rId3"/>
     <sheet name="Zusatz" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
   <si>
     <t>Arbeitsjournal Übersicht</t>
   </si>
@@ -160,11 +160,20 @@
   <si>
     <t>Erstellung eines Testprogrammes für die TCP Verbindung</t>
   </si>
+  <si>
+    <t>TCP Tests</t>
+  </si>
+  <si>
+    <t>Herstellen einer TCP Verbindung und Datenauswertung</t>
+  </si>
+  <si>
+    <t>Datenauswertung =&gt; Daten in Datenstruktur einbinden</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -314,7 +323,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -330,9 +339,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-CH"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -374,7 +383,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -435,79 +443,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51.0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -519,85 +527,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72.0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88.0</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>104.0</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>120.0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>136.0</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>152.0</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>168.0</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>184.0</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>216.0</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>232.0</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>248.0</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>264.0</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>280.0</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>296.0</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>312.0</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>328.0</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>344.0</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>360.0</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8D59-4CCE-98CB-8B5DAB46F197}"/>
             </c:ext>
@@ -628,79 +636,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51.0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -712,85 +720,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8D59-4CCE-98CB-8B5DAB46F197}"/>
             </c:ext>
@@ -841,7 +849,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -962,7 +969,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1037,7 +1043,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1105,9 +1110,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-CH"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1149,7 +1154,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1210,79 +1214,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51.0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1294,85 +1298,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72.0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88.0</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>104.0</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>120.0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>136.0</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>152.0</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>168.0</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>184.0</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>216.0</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>232.0</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>248.0</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>264.0</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>280.0</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>296.0</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>312.0</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>328.0</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>344.0</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>360.0</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-89D9-4C5C-9F7A-65F21CAB559C}"/>
             </c:ext>
@@ -1403,79 +1407,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51.0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1487,85 +1491,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64.0</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>64.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>64.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>64.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>64.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>64.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>64.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>64.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>64.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>64.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>64.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>64.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>64.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>64.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>64.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>64.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>64.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>64.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-89D9-4C5C-9F7A-65F21CAB559C}"/>
             </c:ext>
@@ -1616,7 +1620,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1737,7 +1740,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1812,7 +1814,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3323,27 +3324,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" customWidth="1"/>
-    <col min="8" max="8" width="4.83203125" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="4.625" customWidth="1"/>
+    <col min="8" max="8" width="4.875" customWidth="1"/>
+    <col min="11" max="11" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="11" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
@@ -3351,7 +3352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -3371,10 +3372,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f ca="1">VLOOKUP(Zusatz!J2,Zusatz!A2:C26,3)</f>
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="B5" s="7">
         <f>'Raphael Bolliger'!C45</f>
@@ -3382,22 +3383,22 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">B5-A5</f>
-        <v>-18</v>
+        <v>-34</v>
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP(Zusatz!J2,Zusatz!A2:C26,3)</f>
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="J5" s="7">
         <f>'Andreas Lüscher'!C43</f>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">J5-I5</f>
-        <v>-24</v>
-      </c>
-    </row>
-    <row r="29" spans="13:15" x14ac:dyDescent="0.2">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="29" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="7"/>
@@ -3416,22 +3417,22 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.83203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="7" customWidth="1"/>
     <col min="3" max="3" width="13" style="7" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
     <col min="5" max="5" width="50.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -3448,7 +3449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>WEEKNUM(B4)</f>
         <v>39</v>
@@ -3466,7 +3467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f t="shared" ref="A5:A44" si="0">WEEKNUM(B5)</f>
         <v>40</v>
@@ -3484,7 +3485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3502,7 +3503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3517,7 +3518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3535,7 +3536,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3553,7 +3554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3571,7 +3572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3586,7 +3587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3604,7 +3605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3622,7 +3623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3640,7 +3641,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3658,7 +3659,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3676,7 +3677,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3684,7 +3685,7 @@
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3692,7 +3693,7 @@
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3700,7 +3701,7 @@
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3708,7 +3709,7 @@
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3716,7 +3717,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3724,7 +3725,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3732,7 +3733,7 @@
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3740,7 +3741,7 @@
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3748,7 +3749,7 @@
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3756,7 +3757,7 @@
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3764,7 +3765,7 @@
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3772,7 +3773,7 @@
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3780,7 +3781,7 @@
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3788,7 +3789,7 @@
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3796,7 +3797,7 @@
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3804,7 +3805,7 @@
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3812,7 +3813,7 @@
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3820,7 +3821,7 @@
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3828,7 +3829,7 @@
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3836,7 +3837,7 @@
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3844,7 +3845,7 @@
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3852,7 +3853,7 @@
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3860,7 +3861,7 @@
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3868,7 +3869,7 @@
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3876,7 +3877,7 @@
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3884,7 +3885,7 @@
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3892,7 +3893,7 @@
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3900,23 +3901,23 @@
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
     </row>
-    <row r="45" spans="1:3" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B45" s="19"/>
       <c r="C45" s="20">
         <f>SUM(C4:C44)</f>
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
     </row>
   </sheetData>
@@ -3928,25 +3929,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="13" style="7" customWidth="1"/>
-    <col min="4" max="4" width="34.1640625" customWidth="1"/>
+    <col min="4" max="4" width="34.125" customWidth="1"/>
     <col min="5" max="5" width="50.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="18"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -3963,7 +3964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>WEEKNUM(B4)</f>
         <v>39</v>
@@ -3981,7 +3982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f t="shared" ref="A5:A7" si="0">WEEKNUM(B5)</f>
         <v>40</v>
@@ -3999,7 +4000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4017,7 +4018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4032,7 +4033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>WEEKNUM(B8)</f>
         <v>40</v>
@@ -4050,7 +4051,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>WEEKNUM(B9)</f>
         <v>41</v>
@@ -4068,7 +4069,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>WEEKNUM(B10)</f>
         <v>41</v>
@@ -4086,7 +4087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>WEEKNUM(B11)</f>
         <v>42</v>
@@ -4101,7 +4102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f t="shared" ref="A12" si="1">WEEKNUM(B12)</f>
         <v>40</v>
@@ -4119,7 +4120,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f>WEEKNUM(B13)</f>
         <v>43</v>
@@ -4137,7 +4138,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f>WEEKNUM(B14)</f>
         <v>43</v>
@@ -4155,7 +4156,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f>WEEKNUM(B15)</f>
         <v>44</v>
@@ -4173,7 +4174,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f t="shared" ref="A16:A42" si="2">WEEKNUM(B16)</f>
         <v>44</v>
@@ -4191,167 +4192,185 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="B17" s="5">
+        <v>42671</v>
+      </c>
+      <c r="C17" s="6">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="B18" s="5">
+        <v>42674</v>
+      </c>
+      <c r="C18" s="6">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="5"/>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="5"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="5"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="5"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="5"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="5"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="5"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4359,7 +4378,7 @@
       <c r="B37" s="3"/>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4367,7 +4386,7 @@
       <c r="B38" s="3"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4375,7 +4394,7 @@
       <c r="B39" s="3"/>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4383,7 +4402,7 @@
       <c r="B40" s="3"/>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4391,7 +4410,7 @@
       <c r="B41" s="3"/>
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4399,23 +4418,23 @@
       <c r="B42" s="3"/>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="1:3" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B43" s="8"/>
       <c r="C43" s="20">
         <f>SUM(C4:C42)</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
     </row>
   </sheetData>
@@ -4431,9 +4450,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4497,11 +4516,11 @@
       <c r="H2" s="17"/>
       <c r="I2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42670</v>
+        <v>42676</v>
       </c>
       <c r="J2" s="17">
         <f ca="1">WEEKNUM(I2)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -4649,11 +4668,11 @@
       </c>
       <c r="F7" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A7,'Andreas Lüscher'!$C$4:$C$42)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G7" s="17">
         <f ca="1">SUM(F$2:F7)</f>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
@@ -4680,11 +4699,11 @@
       </c>
       <c r="F8" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A8,'Andreas Lüscher'!$C$4:$C$42)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G8" s="17">
         <f ca="1">SUM(F$2:F8)</f>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
@@ -4715,7 +4734,7 @@
       </c>
       <c r="G9" s="17">
         <f ca="1">SUM(F$2:F9)</f>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
@@ -4746,7 +4765,7 @@
       </c>
       <c r="G10" s="17">
         <f ca="1">SUM(F$2:F10)</f>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
@@ -4777,7 +4796,7 @@
       </c>
       <c r="G11" s="17">
         <f ca="1">SUM(F$2:F11)</f>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -4808,7 +4827,7 @@
       </c>
       <c r="G12" s="17">
         <f ca="1">SUM(F$2:F12)</f>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
@@ -4839,7 +4858,7 @@
       </c>
       <c r="G13" s="17">
         <f ca="1">SUM(F$2:F13)</f>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
@@ -4870,7 +4889,7 @@
       </c>
       <c r="G14" s="17">
         <f ca="1">SUM(F$2:F14)</f>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -4901,7 +4920,7 @@
       </c>
       <c r="G15" s="17">
         <f ca="1">SUM(F$2:F15)</f>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
@@ -4932,7 +4951,7 @@
       </c>
       <c r="G16" s="17">
         <f ca="1">SUM(F$2:F16)</f>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
@@ -4963,7 +4982,7 @@
       </c>
       <c r="G17" s="17">
         <f ca="1">SUM(F$2:F17)</f>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
@@ -4994,7 +5013,7 @@
       </c>
       <c r="G18" s="17">
         <f ca="1">SUM(F$2:F18)</f>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
@@ -5025,7 +5044,7 @@
       </c>
       <c r="G19" s="17">
         <f ca="1">SUM(F$2:F19)</f>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
@@ -5056,7 +5075,7 @@
       </c>
       <c r="G20" s="17">
         <f ca="1">SUM(F$2:F20)</f>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
@@ -5087,7 +5106,7 @@
       </c>
       <c r="G21" s="17">
         <f ca="1">SUM(F$2:F21)</f>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
@@ -5118,7 +5137,7 @@
       </c>
       <c r="G22" s="17">
         <f ca="1">SUM(F$2:F22)</f>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
@@ -5149,7 +5168,7 @@
       </c>
       <c r="G23" s="17">
         <f ca="1">SUM(F$2:F23)</f>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
@@ -5180,7 +5199,7 @@
       </c>
       <c r="G24" s="17">
         <f ca="1">SUM(F$2:F24)</f>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
@@ -5211,7 +5230,7 @@
       </c>
       <c r="G25" s="17">
         <f ca="1">SUM(F$2:F25)</f>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
@@ -5242,7 +5261,7 @@
       </c>
       <c r="G26" s="17">
         <f ca="1">SUM(F$2:F26)</f>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>

--- a/doc/journal/Arbeitsjournal.xlsx
+++ b/doc/journal/Arbeitsjournal.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Documents\Projects\Spektrometer\portableSpectrometer\doc\journal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Daten/Spektrometer/portableSpectrometer/doc/journal/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="26760" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26760" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsjournal" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Andreas Lüscher" sheetId="5" r:id="rId3"/>
     <sheet name="Zusatz" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
   <si>
     <t>Arbeitsjournal Übersicht</t>
   </si>
@@ -169,11 +169,23 @@
   <si>
     <t>Datenauswertung =&gt; Daten in Datenstruktur einbinden</t>
   </si>
+  <si>
+    <t>Spektrometer</t>
+  </si>
+  <si>
+    <t>Restore INI-File des Spektrometers</t>
+  </si>
+  <si>
+    <t>TCP Daten</t>
+  </si>
+  <si>
+    <t>Abbilden der TCP Daten in ein Programmierobjekt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -323,7 +335,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -339,9 +351,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="de-CH"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -383,6 +395,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -443,79 +456,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -527,85 +540,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>104</c:v>
+                  <c:v>104.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>120</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>136</c:v>
+                  <c:v>136.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>152</c:v>
+                  <c:v>152.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>168</c:v>
+                  <c:v>168.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>184</c:v>
+                  <c:v>184.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>216</c:v>
+                  <c:v>216.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>232</c:v>
+                  <c:v>232.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>248</c:v>
+                  <c:v>248.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>264</c:v>
+                  <c:v>264.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>280</c:v>
+                  <c:v>280.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>296</c:v>
+                  <c:v>296.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>312</c:v>
+                  <c:v>312.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>328</c:v>
+                  <c:v>328.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>344</c:v>
+                  <c:v>344.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>360</c:v>
+                  <c:v>360.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8D59-4CCE-98CB-8B5DAB46F197}"/>
             </c:ext>
@@ -636,79 +649,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -720,85 +733,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>70</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>70</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>70</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>70</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>70</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>70</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>70</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>70</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>70</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>70</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>70</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>70</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>70</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>70</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>70</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>70</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8D59-4CCE-98CB-8B5DAB46F197}"/>
             </c:ext>
@@ -813,11 +826,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1476333632"/>
-        <c:axId val="-1476328304"/>
+        <c:axId val="1048665904"/>
+        <c:axId val="1033195888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1476333632"/>
+        <c:axId val="1048665904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -849,6 +862,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -915,7 +929,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1476328304"/>
+        <c:crossAx val="1033195888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -923,7 +937,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1476328304"/>
+        <c:axId val="1033195888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -969,6 +983,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1029,7 +1044,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1476333632"/>
+        <c:crossAx val="1048665904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1043,6 +1058,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1110,9 +1126,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="de-CH"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1154,6 +1170,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1214,79 +1231,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1298,85 +1315,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>104</c:v>
+                  <c:v>104.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>120</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>136</c:v>
+                  <c:v>136.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>152</c:v>
+                  <c:v>152.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>168</c:v>
+                  <c:v>168.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>184</c:v>
+                  <c:v>184.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>216</c:v>
+                  <c:v>216.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>232</c:v>
+                  <c:v>232.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>248</c:v>
+                  <c:v>248.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>264</c:v>
+                  <c:v>264.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>280</c:v>
+                  <c:v>280.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>296</c:v>
+                  <c:v>296.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>312</c:v>
+                  <c:v>312.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>328</c:v>
+                  <c:v>328.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>344</c:v>
+                  <c:v>344.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>360</c:v>
+                  <c:v>360.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-89D9-4C5C-9F7A-65F21CAB559C}"/>
             </c:ext>
@@ -1407,79 +1424,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1491,85 +1508,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-89D9-4C5C-9F7A-65F21CAB559C}"/>
             </c:ext>
@@ -1584,11 +1601,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1487582304"/>
-        <c:axId val="-1487574096"/>
+        <c:axId val="1048902976"/>
+        <c:axId val="1029448752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1487582304"/>
+        <c:axId val="1048902976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1620,6 +1637,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1686,7 +1704,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1487574096"/>
+        <c:crossAx val="1029448752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1694,7 +1712,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1487574096"/>
+        <c:axId val="1029448752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1740,6 +1758,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1800,7 +1819,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1487582304"/>
+        <c:crossAx val="1048902976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1814,6 +1833,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3328,23 +3348,23 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="4.625" customWidth="1"/>
-    <col min="8" max="8" width="4.875" customWidth="1"/>
-    <col min="11" max="11" width="13.875" customWidth="1"/>
-    <col min="13" max="13" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
@@ -3352,7 +3372,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -3372,18 +3392,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <f ca="1">VLOOKUP(Zusatz!J2,Zusatz!A2:C26,3)</f>
         <v>104</v>
       </c>
       <c r="B5" s="7">
         <f>'Raphael Bolliger'!C45</f>
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C5" s="7">
         <f ca="1">B5-A5</f>
-        <v>-34</v>
+        <v>-21</v>
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP(Zusatz!J2,Zusatz!A2:C26,3)</f>
@@ -3398,7 +3418,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="29" spans="13:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="7"/>
@@ -3413,26 +3433,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="7" customWidth="1"/>
     <col min="3" max="3" width="13" style="7" customWidth="1"/>
-    <col min="4" max="4" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
     <col min="5" max="5" width="50.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -3449,7 +3469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <f>WEEKNUM(B4)</f>
         <v>39</v>
@@ -3467,7 +3487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <f t="shared" ref="A5:A44" si="0">WEEKNUM(B5)</f>
         <v>40</v>
@@ -3485,7 +3505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3503,7 +3523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3518,7 +3538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3536,7 +3556,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3554,7 +3574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3572,7 +3592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3587,7 +3607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3605,7 +3625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3623,7 +3643,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3641,7 +3661,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3659,7 +3679,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3677,23 +3697,43 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="B17" s="5">
+        <v>42670</v>
+      </c>
+      <c r="C17" s="6">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="B18" s="5">
+        <v>42671</v>
+      </c>
+      <c r="C18" s="6">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3701,7 +3741,7 @@
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3709,7 +3749,7 @@
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3717,7 +3757,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3725,7 +3765,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3733,7 +3773,7 @@
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3741,7 +3781,7 @@
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3749,7 +3789,7 @@
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3757,7 +3797,7 @@
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3765,7 +3805,7 @@
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3773,7 +3813,7 @@
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3781,7 +3821,7 @@
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3789,7 +3829,7 @@
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3797,7 +3837,7 @@
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3805,7 +3845,7 @@
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3813,7 +3853,7 @@
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3821,7 +3861,7 @@
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3829,7 +3869,7 @@
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3837,7 +3877,7 @@
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3845,7 +3885,7 @@
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3853,7 +3893,7 @@
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3861,7 +3901,7 @@
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3869,7 +3909,7 @@
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3877,7 +3917,7 @@
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3885,7 +3925,7 @@
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3893,7 +3933,7 @@
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3901,23 +3941,23 @@
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
     </row>
-    <row r="45" spans="1:3" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B45" s="19"/>
       <c r="C45" s="20">
         <f>SUM(C4:C44)</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B46" s="5"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B47" s="5"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B48" s="5"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="5"/>
     </row>
   </sheetData>
@@ -3929,25 +3969,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="13" style="7" customWidth="1"/>
-    <col min="4" max="4" width="34.125" customWidth="1"/>
+    <col min="4" max="4" width="34.1640625" customWidth="1"/>
     <col min="5" max="5" width="50.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="18"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -3964,7 +4004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <f>WEEKNUM(B4)</f>
         <v>39</v>
@@ -3982,7 +4022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <f t="shared" ref="A5:A7" si="0">WEEKNUM(B5)</f>
         <v>40</v>
@@ -4000,7 +4040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4018,7 +4058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4033,7 +4073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <f>WEEKNUM(B8)</f>
         <v>40</v>
@@ -4051,7 +4091,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <f>WEEKNUM(B9)</f>
         <v>41</v>
@@ -4069,7 +4109,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <f>WEEKNUM(B10)</f>
         <v>41</v>
@@ -4087,7 +4127,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <f>WEEKNUM(B11)</f>
         <v>42</v>
@@ -4102,7 +4142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <f t="shared" ref="A12" si="1">WEEKNUM(B12)</f>
         <v>40</v>
@@ -4120,7 +4160,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <f>WEEKNUM(B13)</f>
         <v>43</v>
@@ -4138,7 +4178,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <f>WEEKNUM(B14)</f>
         <v>43</v>
@@ -4156,7 +4196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <f>WEEKNUM(B15)</f>
         <v>44</v>
@@ -4174,7 +4214,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <f t="shared" ref="A16:A42" si="2">WEEKNUM(B16)</f>
         <v>44</v>
@@ -4192,7 +4232,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>44</v>
       </c>
@@ -4209,7 +4249,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>45</v>
       </c>
@@ -4226,7 +4266,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4234,7 +4274,7 @@
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4242,7 +4282,7 @@
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4250,7 +4290,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4258,7 +4298,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4266,7 +4306,7 @@
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4274,7 +4314,7 @@
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4282,7 +4322,7 @@
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4290,7 +4330,7 @@
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4298,7 +4338,7 @@
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4306,7 +4346,7 @@
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4314,7 +4354,7 @@
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4322,7 +4362,7 @@
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4330,7 +4370,7 @@
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4338,7 +4378,7 @@
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4346,7 +4386,7 @@
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4354,7 +4394,7 @@
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4362,7 +4402,7 @@
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4370,7 +4410,7 @@
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4378,7 +4418,7 @@
       <c r="B37" s="3"/>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4386,7 +4426,7 @@
       <c r="B38" s="3"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4394,7 +4434,7 @@
       <c r="B39" s="3"/>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4402,7 +4442,7 @@
       <c r="B40" s="3"/>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4410,7 +4450,7 @@
       <c r="B41" s="3"/>
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4418,23 +4458,23 @@
       <c r="B42" s="3"/>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="1:3" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
       <c r="C43" s="20">
         <f>SUM(C4:C42)</f>
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B47" s="3"/>
     </row>
   </sheetData>
@@ -4450,9 +4490,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4660,11 +4700,11 @@
       </c>
       <c r="D7" s="17">
         <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$44,Zusatz!A7,'Raphael Bolliger'!$C$4:$C$44)</f>
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E7" s="17">
         <f ca="1">SUM(D$2:D7)</f>
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F7" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A7,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -4695,7 +4735,7 @@
       </c>
       <c r="E8" s="17">
         <f ca="1">SUM(D$2:D8)</f>
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F8" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A8,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -4726,7 +4766,7 @@
       </c>
       <c r="E9" s="17">
         <f ca="1">SUM(D$2:D9)</f>
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F9" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A9,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -4757,7 +4797,7 @@
       </c>
       <c r="E10" s="17">
         <f ca="1">SUM(D$2:D10)</f>
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F10" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A10,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -4788,7 +4828,7 @@
       </c>
       <c r="E11" s="17">
         <f ca="1">SUM(D$2:D11)</f>
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F11" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A11,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -4819,7 +4859,7 @@
       </c>
       <c r="E12" s="17">
         <f ca="1">SUM(D$2:D12)</f>
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F12" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A12,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -4850,7 +4890,7 @@
       </c>
       <c r="E13" s="17">
         <f ca="1">SUM(D$2:D13)</f>
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F13" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A13,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -4881,7 +4921,7 @@
       </c>
       <c r="E14" s="17">
         <f ca="1">SUM(D$2:D14)</f>
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F14" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A14,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -4912,7 +4952,7 @@
       </c>
       <c r="E15" s="17">
         <f ca="1">SUM(D$2:D15)</f>
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F15" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A15,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -4943,7 +4983,7 @@
       </c>
       <c r="E16" s="17">
         <f ca="1">SUM(D$2:D16)</f>
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F16" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A16,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -4974,7 +5014,7 @@
       </c>
       <c r="E17" s="17">
         <f ca="1">SUM(D$2:D17)</f>
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F17" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A17,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5005,7 +5045,7 @@
       </c>
       <c r="E18" s="17">
         <f ca="1">SUM(D$2:D18)</f>
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F18" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A18,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5036,7 +5076,7 @@
       </c>
       <c r="E19" s="17">
         <f ca="1">SUM(D$2:D19)</f>
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F19" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A19,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5067,7 +5107,7 @@
       </c>
       <c r="E20" s="17">
         <f ca="1">SUM(D$2:D20)</f>
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F20" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A20,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5098,7 +5138,7 @@
       </c>
       <c r="E21" s="17">
         <f ca="1">SUM(D$2:D21)</f>
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F21" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A21,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5129,7 +5169,7 @@
       </c>
       <c r="E22" s="17">
         <f ca="1">SUM(D$2:D22)</f>
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F22" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A22,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5160,7 +5200,7 @@
       </c>
       <c r="E23" s="17">
         <f ca="1">SUM(D$2:D23)</f>
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F23" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A23,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5191,7 +5231,7 @@
       </c>
       <c r="E24" s="17">
         <f ca="1">SUM(D$2:D24)</f>
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F24" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A24,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5222,7 +5262,7 @@
       </c>
       <c r="E25" s="17">
         <f ca="1">SUM(D$2:D25)</f>
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F25" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A25,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5253,7 +5293,7 @@
       </c>
       <c r="E26" s="17">
         <f ca="1">SUM(D$2:D26)</f>
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F26" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A26,'Andreas Lüscher'!$C$4:$C$42)</f>

--- a/doc/journal/Arbeitsjournal.xlsx
+++ b/doc/journal/Arbeitsjournal.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
   <si>
     <t>Arbeitsjournal Übersicht</t>
   </si>
@@ -180,6 +180,27 @@
   </si>
   <si>
     <t>Abbilden der TCP Daten in ein Programmierobjekt</t>
+  </si>
+  <si>
+    <t>Zwischenmeeting</t>
+  </si>
+  <si>
+    <t>Meeting bei ca. 30% des Projektstandes</t>
+  </si>
+  <si>
+    <t>Feinplanung</t>
+  </si>
+  <si>
+    <t>Feinplanung mit Meilensteine</t>
+  </si>
+  <si>
+    <t>Pflichtenheft</t>
+  </si>
+  <si>
+    <t>Pflichtenheft erstellt</t>
+  </si>
+  <si>
+    <t>Pflichtenheft erweitert</t>
   </si>
 </sst>
 </file>
@@ -395,7 +416,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -751,61 +771,61 @@
                   <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>83.0</c:v>
+                  <c:v>92.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>83.0</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>83.0</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>83.0</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>83.0</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>83.0</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>83.0</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>83.0</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>83.0</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>83.0</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>83.0</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>83.0</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>83.0</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>83.0</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>83.0</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>83.0</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>83.0</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>83.0</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>83.0</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -826,11 +846,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1048665904"/>
-        <c:axId val="1033195888"/>
+        <c:axId val="-420184832"/>
+        <c:axId val="-420162288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1048665904"/>
+        <c:axId val="-420184832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,7 +882,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -929,7 +948,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1033195888"/>
+        <c:crossAx val="-420162288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -937,7 +956,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1033195888"/>
+        <c:axId val="-420162288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -983,7 +1002,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1044,7 +1062,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1048665904"/>
+        <c:crossAx val="-420184832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1058,7 +1076,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1170,7 +1187,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1601,11 +1617,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1048902976"/>
-        <c:axId val="1029448752"/>
+        <c:axId val="-420053984"/>
+        <c:axId val="-420045776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1048902976"/>
+        <c:axId val="-420053984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1637,7 +1653,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1704,7 +1719,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1029448752"/>
+        <c:crossAx val="-420045776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1712,7 +1727,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1029448752"/>
+        <c:axId val="-420045776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1758,7 +1773,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1819,7 +1833,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1048902976"/>
+        <c:crossAx val="-420053984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1833,7 +1847,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3395,19 +3408,19 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <f ca="1">VLOOKUP(Zusatz!J2,Zusatz!A2:C26,3)</f>
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B5" s="7">
         <f>'Raphael Bolliger'!C45</f>
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C5" s="7">
         <f ca="1">B5-A5</f>
-        <v>-21</v>
+        <v>-24</v>
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP(Zusatz!J2,Zusatz!A2:C26,3)</f>
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="J5" s="7">
         <f>'Andreas Lüscher'!C43</f>
@@ -3415,7 +3428,7 @@
       </c>
       <c r="K5" s="7">
         <f ca="1">J5-I5</f>
-        <v>-29</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="29" spans="13:15" x14ac:dyDescent="0.2">
@@ -3434,7 +3447,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3736,34 +3749,74 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="B19" s="5">
+        <v>42677</v>
+      </c>
+      <c r="C19" s="6">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="B20" s="5">
+        <v>42679</v>
+      </c>
+      <c r="C20" s="6">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="B21" s="5">
+        <v>42679</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="B22" s="5">
+        <v>42686</v>
+      </c>
+      <c r="C22" s="6">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
@@ -3945,7 +3998,7 @@
       <c r="B45" s="19"/>
       <c r="C45" s="20">
         <f>SUM(C4:C44)</f>
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -4556,11 +4609,11 @@
       <c r="H2" s="17"/>
       <c r="I2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42676</v>
+        <v>42686</v>
       </c>
       <c r="J2" s="17">
         <f ca="1">WEEKNUM(I2)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -4731,11 +4784,11 @@
       </c>
       <c r="D8" s="17">
         <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$44,Zusatz!A8,'Raphael Bolliger'!$C$4:$C$44)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E8" s="17">
         <f ca="1">SUM(D$2:D8)</f>
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F8" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A8,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -4762,11 +4815,11 @@
       </c>
       <c r="D9" s="17">
         <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$44,Zusatz!A9,'Raphael Bolliger'!$C$4:$C$44)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E9" s="17">
         <f ca="1">SUM(D$2:D9)</f>
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F9" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A9,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -4797,7 +4850,7 @@
       </c>
       <c r="E10" s="17">
         <f ca="1">SUM(D$2:D10)</f>
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F10" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A10,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -4828,7 +4881,7 @@
       </c>
       <c r="E11" s="17">
         <f ca="1">SUM(D$2:D11)</f>
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F11" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A11,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -4859,7 +4912,7 @@
       </c>
       <c r="E12" s="17">
         <f ca="1">SUM(D$2:D12)</f>
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F12" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A12,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -4890,7 +4943,7 @@
       </c>
       <c r="E13" s="17">
         <f ca="1">SUM(D$2:D13)</f>
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F13" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A13,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -4921,7 +4974,7 @@
       </c>
       <c r="E14" s="17">
         <f ca="1">SUM(D$2:D14)</f>
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F14" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A14,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -4952,7 +5005,7 @@
       </c>
       <c r="E15" s="17">
         <f ca="1">SUM(D$2:D15)</f>
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F15" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A15,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -4983,7 +5036,7 @@
       </c>
       <c r="E16" s="17">
         <f ca="1">SUM(D$2:D16)</f>
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F16" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A16,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5014,7 +5067,7 @@
       </c>
       <c r="E17" s="17">
         <f ca="1">SUM(D$2:D17)</f>
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F17" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A17,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5045,7 +5098,7 @@
       </c>
       <c r="E18" s="17">
         <f ca="1">SUM(D$2:D18)</f>
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F18" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A18,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5076,7 +5129,7 @@
       </c>
       <c r="E19" s="17">
         <f ca="1">SUM(D$2:D19)</f>
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F19" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A19,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5107,7 +5160,7 @@
       </c>
       <c r="E20" s="17">
         <f ca="1">SUM(D$2:D20)</f>
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F20" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A20,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5138,7 +5191,7 @@
       </c>
       <c r="E21" s="17">
         <f ca="1">SUM(D$2:D21)</f>
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F21" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A21,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5169,7 +5222,7 @@
       </c>
       <c r="E22" s="17">
         <f ca="1">SUM(D$2:D22)</f>
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F22" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A22,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5200,7 +5253,7 @@
       </c>
       <c r="E23" s="17">
         <f ca="1">SUM(D$2:D23)</f>
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F23" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A23,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5231,7 +5284,7 @@
       </c>
       <c r="E24" s="17">
         <f ca="1">SUM(D$2:D24)</f>
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F24" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A24,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5262,7 +5315,7 @@
       </c>
       <c r="E25" s="17">
         <f ca="1">SUM(D$2:D25)</f>
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F25" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A25,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5293,7 +5346,7 @@
       </c>
       <c r="E26" s="17">
         <f ca="1">SUM(D$2:D26)</f>
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F26" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A26,'Andreas Lüscher'!$C$4:$C$42)</f>

--- a/doc/journal/Arbeitsjournal.xlsx
+++ b/doc/journal/Arbeitsjournal.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Daten/Spektrometer/portableSpectrometer/doc/journal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Andreas/Projects/Bachelorthesis/portableSpectrometer/doc/journal/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26760" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsjournal" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
   <si>
     <t>Arbeitsjournal Übersicht</t>
   </si>
@@ -201,6 +201,21 @@
   </si>
   <si>
     <t>Pflichtenheft erweitert</t>
+  </si>
+  <si>
+    <t>Proof of Concept</t>
+  </si>
+  <si>
+    <t>TCP Kommunikation</t>
+  </si>
+  <si>
+    <t>Verbindung mit dem Spektrometer herstellen und Struktur analysieren</t>
+  </si>
+  <si>
+    <t>Verbindung mit dem Spektrometer herstellen und Rückgabe in Model einbinden</t>
+  </si>
+  <si>
+    <t>Starten eines Proof of Concept inklusive Architekturvorschlag</t>
   </si>
 </sst>
 </file>
@@ -416,6 +431,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -846,11 +862,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-420184832"/>
-        <c:axId val="-420162288"/>
+        <c:axId val="1489156880"/>
+        <c:axId val="1489198288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-420184832"/>
+        <c:axId val="1489156880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -882,6 +898,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -948,7 +965,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-420162288"/>
+        <c:crossAx val="1489198288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -956,7 +973,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-420162288"/>
+        <c:axId val="1489198288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1002,6 +1019,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1062,7 +1080,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-420184832"/>
+        <c:crossAx val="1489156880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1076,6 +1094,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1187,6 +1206,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1542,61 +1562,61 @@
                   <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75.0</c:v>
+                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75.0</c:v>
+                  <c:v>86.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75.0</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75.0</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75.0</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75.0</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75.0</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>75.0</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75.0</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>75.0</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>75.0</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>75.0</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>75.0</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>75.0</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>75.0</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>75.0</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>75.0</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>75.0</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>75.0</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1617,11 +1637,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-420053984"/>
-        <c:axId val="-420045776"/>
+        <c:axId val="1489622752"/>
+        <c:axId val="1489627408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-420053984"/>
+        <c:axId val="1489622752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1653,6 +1673,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1719,7 +1740,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-420045776"/>
+        <c:crossAx val="1489627408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1727,7 +1748,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-420045776"/>
+        <c:axId val="1489627408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1773,6 +1794,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1833,7 +1855,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-420053984"/>
+        <c:crossAx val="1489622752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1847,6 +1869,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3357,8 +3380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3408,7 +3431,7 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <f ca="1">VLOOKUP(Zusatz!J2,Zusatz!A2:C26,3)</f>
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B5" s="7">
         <f>'Raphael Bolliger'!C45</f>
@@ -3416,19 +3439,19 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">B5-A5</f>
-        <v>-24</v>
+        <v>-40</v>
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP(Zusatz!J2,Zusatz!A2:C26,3)</f>
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="J5" s="7">
         <f>'Andreas Lüscher'!C43</f>
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">J5-I5</f>
-        <v>-45</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="29" spans="13:15" x14ac:dyDescent="0.2">
@@ -3446,8 +3469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4023,7 +4046,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4322,50 +4345,107 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="B19" s="5">
+        <v>42677</v>
+      </c>
+      <c r="C19" s="6">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="B20" s="5">
+        <v>42679</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="B21" s="5">
+        <v>42685</v>
+      </c>
+      <c r="C21" s="6">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="B22" s="5">
+        <v>42686</v>
+      </c>
+      <c r="C22" s="6">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="B23" s="5">
+        <v>42688</v>
+      </c>
+      <c r="C23" s="6">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="B24" s="5">
+        <v>42689</v>
+      </c>
+      <c r="C24" s="6">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
@@ -4515,7 +4595,7 @@
       <c r="B43" s="8"/>
       <c r="C43" s="20">
         <f>SUM(C4:C42)</f>
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -4609,11 +4689,11 @@
       <c r="H2" s="17"/>
       <c r="I2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42686</v>
+        <v>42689</v>
       </c>
       <c r="J2" s="17">
         <f ca="1">WEEKNUM(I2)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -4792,11 +4872,11 @@
       </c>
       <c r="F8" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A8,'Andreas Lüscher'!$C$4:$C$42)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G8" s="17">
         <f ca="1">SUM(F$2:F8)</f>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
@@ -4823,11 +4903,11 @@
       </c>
       <c r="F9" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A9,'Andreas Lüscher'!$C$4:$C$42)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G9" s="17">
         <f ca="1">SUM(F$2:F9)</f>
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
@@ -4854,11 +4934,11 @@
       </c>
       <c r="F10" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A10,'Andreas Lüscher'!$C$4:$C$42)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G10" s="17">
         <f ca="1">SUM(F$2:F10)</f>
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
@@ -4889,7 +4969,7 @@
       </c>
       <c r="G11" s="17">
         <f ca="1">SUM(F$2:F11)</f>
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -4920,7 +5000,7 @@
       </c>
       <c r="G12" s="17">
         <f ca="1">SUM(F$2:F12)</f>
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
@@ -4951,7 +5031,7 @@
       </c>
       <c r="G13" s="17">
         <f ca="1">SUM(F$2:F13)</f>
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
@@ -4982,7 +5062,7 @@
       </c>
       <c r="G14" s="17">
         <f ca="1">SUM(F$2:F14)</f>
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -5013,7 +5093,7 @@
       </c>
       <c r="G15" s="17">
         <f ca="1">SUM(F$2:F15)</f>
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
@@ -5044,7 +5124,7 @@
       </c>
       <c r="G16" s="17">
         <f ca="1">SUM(F$2:F16)</f>
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
@@ -5075,7 +5155,7 @@
       </c>
       <c r="G17" s="17">
         <f ca="1">SUM(F$2:F17)</f>
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
@@ -5106,7 +5186,7 @@
       </c>
       <c r="G18" s="17">
         <f ca="1">SUM(F$2:F18)</f>
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
@@ -5137,7 +5217,7 @@
       </c>
       <c r="G19" s="17">
         <f ca="1">SUM(F$2:F19)</f>
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
@@ -5168,7 +5248,7 @@
       </c>
       <c r="G20" s="17">
         <f ca="1">SUM(F$2:F20)</f>
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
@@ -5199,7 +5279,7 @@
       </c>
       <c r="G21" s="17">
         <f ca="1">SUM(F$2:F21)</f>
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
@@ -5230,7 +5310,7 @@
       </c>
       <c r="G22" s="17">
         <f ca="1">SUM(F$2:F22)</f>
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
@@ -5261,7 +5341,7 @@
       </c>
       <c r="G23" s="17">
         <f ca="1">SUM(F$2:F23)</f>
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
@@ -5292,7 +5372,7 @@
       </c>
       <c r="G24" s="17">
         <f ca="1">SUM(F$2:F24)</f>
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
@@ -5323,7 +5403,7 @@
       </c>
       <c r="G25" s="17">
         <f ca="1">SUM(F$2:F25)</f>
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
@@ -5354,7 +5434,7 @@
       </c>
       <c r="G26" s="17">
         <f ca="1">SUM(F$2:F26)</f>
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>

--- a/doc/journal/Arbeitsjournal.xlsx
+++ b/doc/journal/Arbeitsjournal.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Andreas/Projects/Bachelorthesis/portableSpectrometer/doc/journal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Daten/Spektrometer/portableSpectrometer/doc/journal/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsjournal" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
   <si>
     <t>Arbeitsjournal Übersicht</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>Starten eines Proof of Concept inklusive Architekturvorschlag</t>
+  </si>
+  <si>
+    <t>Implementierung des TCP Protokolls in Swift</t>
   </si>
 </sst>
 </file>
@@ -793,55 +796,55 @@
                   <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>96.0</c:v>
+                  <c:v>105.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>96.0</c:v>
+                  <c:v>105.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>96.0</c:v>
+                  <c:v>105.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>96.0</c:v>
+                  <c:v>105.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>96.0</c:v>
+                  <c:v>105.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>96.0</c:v>
+                  <c:v>105.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>96.0</c:v>
+                  <c:v>105.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>96.0</c:v>
+                  <c:v>105.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>96.0</c:v>
+                  <c:v>105.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>96.0</c:v>
+                  <c:v>105.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>96.0</c:v>
+                  <c:v>105.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>96.0</c:v>
+                  <c:v>105.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>96.0</c:v>
+                  <c:v>105.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>96.0</c:v>
+                  <c:v>105.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>96.0</c:v>
+                  <c:v>105.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>96.0</c:v>
+                  <c:v>105.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>96.0</c:v>
+                  <c:v>105.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -862,11 +865,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1489156880"/>
-        <c:axId val="1489198288"/>
+        <c:axId val="-1242498032"/>
+        <c:axId val="-1257988944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1489156880"/>
+        <c:axId val="-1242498032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +968,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1489198288"/>
+        <c:crossAx val="-1257988944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -973,7 +976,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1489198288"/>
+        <c:axId val="-1257988944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1080,7 +1083,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1489156880"/>
+        <c:crossAx val="-1242498032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1637,11 +1640,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1489622752"/>
-        <c:axId val="1489627408"/>
+        <c:axId val="-1294965184"/>
+        <c:axId val="-1245061984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1489622752"/>
+        <c:axId val="-1294965184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1740,7 +1743,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1489627408"/>
+        <c:crossAx val="-1245061984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1748,7 +1751,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1489627408"/>
+        <c:axId val="-1245061984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1855,7 +1858,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1489622752"/>
+        <c:crossAx val="-1294965184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3380,7 +3383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
@@ -3435,11 +3438,11 @@
       </c>
       <c r="B5" s="7">
         <f>'Raphael Bolliger'!C45</f>
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C5" s="7">
         <f ca="1">B5-A5</f>
-        <v>-40</v>
+        <v>-31</v>
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP(Zusatz!J2,Zusatz!A2:C26,3)</f>
@@ -3469,8 +3472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3844,18 +3847,38 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="B23" s="5">
+        <v>42689</v>
+      </c>
+      <c r="C23" s="6">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="B24" s="5">
+        <v>42690</v>
+      </c>
+      <c r="C24" s="6">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
@@ -4021,7 +4044,7 @@
       <c r="B45" s="19"/>
       <c r="C45" s="20">
         <f>SUM(C4:C44)</f>
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -4689,7 +4712,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42689</v>
+        <v>42690</v>
       </c>
       <c r="J2" s="17">
         <f ca="1">WEEKNUM(I2)</f>
@@ -4926,11 +4949,11 @@
       </c>
       <c r="D10" s="17">
         <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$44,Zusatz!A10,'Raphael Bolliger'!$C$4:$C$44)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E10" s="17">
         <f ca="1">SUM(D$2:D10)</f>
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F10" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A10,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -4961,7 +4984,7 @@
       </c>
       <c r="E11" s="17">
         <f ca="1">SUM(D$2:D11)</f>
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F11" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A11,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -4992,7 +5015,7 @@
       </c>
       <c r="E12" s="17">
         <f ca="1">SUM(D$2:D12)</f>
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F12" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A12,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5023,7 +5046,7 @@
       </c>
       <c r="E13" s="17">
         <f ca="1">SUM(D$2:D13)</f>
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F13" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A13,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5054,7 +5077,7 @@
       </c>
       <c r="E14" s="17">
         <f ca="1">SUM(D$2:D14)</f>
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F14" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A14,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5085,7 +5108,7 @@
       </c>
       <c r="E15" s="17">
         <f ca="1">SUM(D$2:D15)</f>
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F15" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A15,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5116,7 +5139,7 @@
       </c>
       <c r="E16" s="17">
         <f ca="1">SUM(D$2:D16)</f>
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F16" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A16,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5147,7 +5170,7 @@
       </c>
       <c r="E17" s="17">
         <f ca="1">SUM(D$2:D17)</f>
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F17" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A17,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5178,7 +5201,7 @@
       </c>
       <c r="E18" s="17">
         <f ca="1">SUM(D$2:D18)</f>
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F18" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A18,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5209,7 +5232,7 @@
       </c>
       <c r="E19" s="17">
         <f ca="1">SUM(D$2:D19)</f>
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F19" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A19,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5240,7 +5263,7 @@
       </c>
       <c r="E20" s="17">
         <f ca="1">SUM(D$2:D20)</f>
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F20" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A20,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5271,7 +5294,7 @@
       </c>
       <c r="E21" s="17">
         <f ca="1">SUM(D$2:D21)</f>
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F21" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A21,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5302,7 +5325,7 @@
       </c>
       <c r="E22" s="17">
         <f ca="1">SUM(D$2:D22)</f>
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F22" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A22,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5333,7 +5356,7 @@
       </c>
       <c r="E23" s="17">
         <f ca="1">SUM(D$2:D23)</f>
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F23" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A23,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5364,7 +5387,7 @@
       </c>
       <c r="E24" s="17">
         <f ca="1">SUM(D$2:D24)</f>
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F24" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A24,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5395,7 +5418,7 @@
       </c>
       <c r="E25" s="17">
         <f ca="1">SUM(D$2:D25)</f>
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F25" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A25,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5426,7 +5449,7 @@
       </c>
       <c r="E26" s="17">
         <f ca="1">SUM(D$2:D26)</f>
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F26" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A26,'Andreas Lüscher'!$C$4:$C$42)</f>

--- a/doc/journal/Arbeitsjournal.xlsx
+++ b/doc/journal/Arbeitsjournal.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="19520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsjournal" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="71">
   <si>
     <t>Arbeitsjournal Übersicht</t>
   </si>
@@ -219,6 +219,30 @@
   </si>
   <si>
     <t>Implementierung des TCP Protokolls in Swift</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>Implementierung einiger Views, definieren der Schriftart</t>
+  </si>
+  <si>
+    <t>Erweiterung des GUI / Spektrometerkonfiguration</t>
+  </si>
+  <si>
+    <t>INI Fileimport</t>
+  </si>
+  <si>
+    <t>Datei-Import der INI Files ins Spektrometer App</t>
+  </si>
+  <si>
+    <t>Anforderungen</t>
+  </si>
+  <si>
+    <t>Spektrometer konfiguration</t>
+  </si>
+  <si>
+    <t>Hinzufügen eines neuen Spektrometers im App</t>
   </si>
 </sst>
 </file>
@@ -796,55 +820,55 @@
                   <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>105.0</c:v>
+                  <c:v>108.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>105.0</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>105.0</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>105.0</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>105.0</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>105.0</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>105.0</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>105.0</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>105.0</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>105.0</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>105.0</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>105.0</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>105.0</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>105.0</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>105.0</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>105.0</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>105.0</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,11 +889,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1242498032"/>
-        <c:axId val="-1257988944"/>
+        <c:axId val="-1361838784"/>
+        <c:axId val="-1359568384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1242498032"/>
+        <c:axId val="-1361838784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -968,7 +992,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1257988944"/>
+        <c:crossAx val="-1359568384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -976,7 +1000,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1257988944"/>
+        <c:axId val="-1359568384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1083,7 +1107,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1242498032"/>
+        <c:crossAx val="-1361838784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1640,11 +1664,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1294965184"/>
-        <c:axId val="-1245061984"/>
+        <c:axId val="-1377989776"/>
+        <c:axId val="-1377981504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1294965184"/>
+        <c:axId val="-1377989776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1743,7 +1767,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1245061984"/>
+        <c:crossAx val="-1377981504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1751,7 +1775,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1245061984"/>
+        <c:axId val="-1377981504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1858,7 +1882,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1294965184"/>
+        <c:crossAx val="-1377989776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3383,7 +3407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
@@ -3434,19 +3458,19 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <f ca="1">VLOOKUP(Zusatz!J2,Zusatz!A2:C26,3)</f>
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="B5" s="7">
         <f>'Raphael Bolliger'!C45</f>
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C5" s="7">
         <f ca="1">B5-A5</f>
-        <v>-31</v>
+        <v>-35</v>
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP(Zusatz!J2,Zusatz!A2:C26,3)</f>
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="J5" s="7">
         <f>'Andreas Lüscher'!C43</f>
@@ -3454,7 +3478,7 @@
       </c>
       <c r="K5" s="7">
         <f ca="1">J5-I5</f>
-        <v>-39</v>
+        <v>-71</v>
       </c>
     </row>
     <row r="29" spans="13:15" x14ac:dyDescent="0.2">
@@ -3472,8 +3496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3883,42 +3907,92 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="B25" s="5">
+        <v>42693</v>
+      </c>
+      <c r="C25" s="6">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="B26" s="5">
+        <v>42694</v>
+      </c>
+      <c r="C26" s="6">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="B27" s="5">
+        <v>42696</v>
+      </c>
+      <c r="C27" s="6">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <v>42697</v>
+      </c>
+      <c r="C28" s="6">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="B29" s="5">
+        <v>42699</v>
+      </c>
+      <c r="C29" s="6">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
@@ -4044,7 +4118,7 @@
       <c r="B45" s="19"/>
       <c r="C45" s="20">
         <f>SUM(C4:C44)</f>
-        <v>105</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -4712,11 +4786,11 @@
       <c r="H2" s="17"/>
       <c r="I2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42690</v>
+        <v>42703</v>
       </c>
       <c r="J2" s="17">
         <f ca="1">WEEKNUM(I2)</f>
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -4949,11 +5023,11 @@
       </c>
       <c r="D10" s="17">
         <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$44,Zusatz!A10,'Raphael Bolliger'!$C$4:$C$44)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E10" s="17">
         <f ca="1">SUM(D$2:D10)</f>
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F10" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A10,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -4980,11 +5054,11 @@
       </c>
       <c r="D11" s="17">
         <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$44,Zusatz!A11,'Raphael Bolliger'!$C$4:$C$44)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E11" s="17">
         <f ca="1">SUM(D$2:D11)</f>
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="F11" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A11,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5015,7 +5089,7 @@
       </c>
       <c r="E12" s="17">
         <f ca="1">SUM(D$2:D12)</f>
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="F12" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A12,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5046,7 +5120,7 @@
       </c>
       <c r="E13" s="17">
         <f ca="1">SUM(D$2:D13)</f>
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="F13" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A13,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5077,7 +5151,7 @@
       </c>
       <c r="E14" s="17">
         <f ca="1">SUM(D$2:D14)</f>
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="F14" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A14,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5108,7 +5182,7 @@
       </c>
       <c r="E15" s="17">
         <f ca="1">SUM(D$2:D15)</f>
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="F15" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A15,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5139,7 +5213,7 @@
       </c>
       <c r="E16" s="17">
         <f ca="1">SUM(D$2:D16)</f>
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="F16" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A16,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5170,7 +5244,7 @@
       </c>
       <c r="E17" s="17">
         <f ca="1">SUM(D$2:D17)</f>
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="F17" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A17,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5201,7 +5275,7 @@
       </c>
       <c r="E18" s="17">
         <f ca="1">SUM(D$2:D18)</f>
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="F18" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A18,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5232,7 +5306,7 @@
       </c>
       <c r="E19" s="17">
         <f ca="1">SUM(D$2:D19)</f>
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="F19" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A19,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5263,7 +5337,7 @@
       </c>
       <c r="E20" s="17">
         <f ca="1">SUM(D$2:D20)</f>
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="F20" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A20,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5294,7 +5368,7 @@
       </c>
       <c r="E21" s="17">
         <f ca="1">SUM(D$2:D21)</f>
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="F21" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A21,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5325,7 +5399,7 @@
       </c>
       <c r="E22" s="17">
         <f ca="1">SUM(D$2:D22)</f>
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="F22" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A22,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5356,7 +5430,7 @@
       </c>
       <c r="E23" s="17">
         <f ca="1">SUM(D$2:D23)</f>
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="F23" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A23,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5387,7 +5461,7 @@
       </c>
       <c r="E24" s="17">
         <f ca="1">SUM(D$2:D24)</f>
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="F24" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A24,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5418,7 +5492,7 @@
       </c>
       <c r="E25" s="17">
         <f ca="1">SUM(D$2:D25)</f>
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="F25" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A25,'Andreas Lüscher'!$C$4:$C$42)</f>
@@ -5449,7 +5523,7 @@
       </c>
       <c r="E26" s="17">
         <f ca="1">SUM(D$2:D26)</f>
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="F26" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A26,'Andreas Lüscher'!$C$4:$C$42)</f>

--- a/doc/journal/Arbeitsjournal.xlsx
+++ b/doc/journal/Arbeitsjournal.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Daten/Spektrometer/portableSpectrometer/doc/journal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Documents\Projects\Spektrometer\portableSpectrometer\doc\journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="19520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="16800" windowHeight="19515" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsjournal" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Andreas Lüscher" sheetId="5" r:id="rId3"/>
     <sheet name="Zusatz" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="79">
   <si>
     <t>Arbeitsjournal Übersicht</t>
   </si>
@@ -243,12 +243,36 @@
   </si>
   <si>
     <t>Hinzufügen eines neuen Spektrometers im App</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Parsen der Rückgabetypen verbessert</t>
+  </si>
+  <si>
+    <t>UI des Spektrometer Apps verbessert</t>
+  </si>
+  <si>
+    <t>Erweiterung der App mit Filemanager</t>
+  </si>
+  <si>
+    <t>Weitere Views hinzugefügt</t>
+  </si>
+  <si>
+    <t>Bestehendes Pflichtenheft verbessert</t>
+  </si>
+  <si>
+    <t>Ziele zur Planung hinzugefügt</t>
+  </si>
+  <si>
+    <t>Plannung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -398,7 +422,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -414,9 +438,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-CH"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -458,7 +482,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -519,79 +542,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51.0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -603,85 +626,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72.0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88.0</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>104.0</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>120.0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>136.0</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>152.0</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>168.0</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>184.0</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>216.0</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>232.0</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>248.0</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>264.0</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>280.0</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>296.0</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>312.0</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>328.0</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>344.0</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>360.0</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8D59-4CCE-98CB-8B5DAB46F197}"/>
             </c:ext>
@@ -712,79 +735,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51.0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -796,85 +819,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83.0</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92.0</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96.0</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>108.0</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>133.0</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>133.0</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>133.0</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>133.0</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>133.0</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>133.0</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>133.0</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>133.0</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>133.0</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>133.0</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>133.0</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>133.0</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>133.0</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>133.0</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>133.0</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>133.0</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8D59-4CCE-98CB-8B5DAB46F197}"/>
             </c:ext>
@@ -925,7 +948,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1046,7 +1068,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1121,7 +1142,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1189,9 +1209,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-CH"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1233,7 +1253,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1294,79 +1313,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51.0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1378,85 +1397,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72.0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88.0</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>104.0</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>120.0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>136.0</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>152.0</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>168.0</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>184.0</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>216.0</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>232.0</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>248.0</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>264.0</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>280.0</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>296.0</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>312.0</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>328.0</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>344.0</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>360.0</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-89D9-4C5C-9F7A-65F21CAB559C}"/>
             </c:ext>
@@ -1487,79 +1506,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51.0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1571,85 +1590,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69.0</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>79.0</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>86.0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>97.0</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>97.0</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>97.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>97.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>97.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>97.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>97.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>97.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>97.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>97.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>97.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>97.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>97.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>97.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>97.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>97.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>97.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-89D9-4C5C-9F7A-65F21CAB559C}"/>
             </c:ext>
@@ -1700,7 +1719,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1821,7 +1839,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1896,7 +1913,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3407,27 +3423,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" customWidth="1"/>
-    <col min="8" max="8" width="4.83203125" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="4.625" customWidth="1"/>
+    <col min="8" max="8" width="4.875" customWidth="1"/>
+    <col min="11" max="11" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="11" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
@@ -3435,7 +3451,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -3455,7 +3471,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f ca="1">VLOOKUP(Zusatz!J2,Zusatz!A2:C26,3)</f>
         <v>168</v>
@@ -3474,14 +3490,14 @@
       </c>
       <c r="J5" s="7">
         <f>'Andreas Lüscher'!C43</f>
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">J5-I5</f>
-        <v>-71</v>
-      </c>
-    </row>
-    <row r="29" spans="13:15" x14ac:dyDescent="0.2">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="29" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="7"/>
@@ -3496,26 +3512,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E29" sqref="A24:E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.83203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="7" customWidth="1"/>
     <col min="3" max="3" width="13" style="7" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
     <col min="5" max="5" width="50.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -3532,7 +3548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>WEEKNUM(B4)</f>
         <v>39</v>
@@ -3550,7 +3566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f t="shared" ref="A5:A44" si="0">WEEKNUM(B5)</f>
         <v>40</v>
@@ -3568,7 +3584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3586,7 +3602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3601,7 +3617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3619,7 +3635,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3637,7 +3653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3655,7 +3671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3670,7 +3686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3688,7 +3704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3706,7 +3722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3724,7 +3740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3742,7 +3758,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3760,7 +3776,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3778,7 +3794,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3796,7 +3812,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3814,7 +3830,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3832,7 +3848,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3850,7 +3866,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3868,7 +3884,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3886,7 +3902,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3904,7 +3920,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3922,7 +3938,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3940,7 +3956,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3958,7 +3974,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3976,7 +3992,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3994,7 +4010,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4002,7 +4018,7 @@
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4010,7 +4026,7 @@
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4018,7 +4034,7 @@
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4026,7 +4042,7 @@
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4034,7 +4050,7 @@
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4042,7 +4058,7 @@
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4050,7 +4066,7 @@
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4058,7 +4074,7 @@
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4066,7 +4082,7 @@
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4074,7 +4090,7 @@
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4082,7 +4098,7 @@
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4090,7 +4106,7 @@
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4098,7 +4114,7 @@
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4106,7 +4122,7 @@
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4114,23 +4130,23 @@
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
     </row>
-    <row r="45" spans="1:3" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B45" s="19"/>
       <c r="C45" s="20">
         <f>SUM(C4:C44)</f>
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
     </row>
   </sheetData>
@@ -4142,25 +4158,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="13" style="7" customWidth="1"/>
-    <col min="4" max="4" width="34.1640625" customWidth="1"/>
+    <col min="4" max="4" width="34.125" customWidth="1"/>
     <col min="5" max="5" width="50.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="18"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -4177,7 +4193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>WEEKNUM(B4)</f>
         <v>39</v>
@@ -4195,7 +4211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f t="shared" ref="A5:A7" si="0">WEEKNUM(B5)</f>
         <v>40</v>
@@ -4213,7 +4229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4231,7 +4247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4246,7 +4262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>WEEKNUM(B8)</f>
         <v>40</v>
@@ -4264,7 +4280,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>WEEKNUM(B9)</f>
         <v>41</v>
@@ -4282,7 +4298,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>WEEKNUM(B10)</f>
         <v>41</v>
@@ -4300,7 +4316,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>WEEKNUM(B11)</f>
         <v>42</v>
@@ -4315,7 +4331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f t="shared" ref="A12" si="1">WEEKNUM(B12)</f>
         <v>40</v>
@@ -4333,7 +4349,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f>WEEKNUM(B13)</f>
         <v>43</v>
@@ -4351,7 +4367,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f>WEEKNUM(B14)</f>
         <v>43</v>
@@ -4369,7 +4385,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f>WEEKNUM(B15)</f>
         <v>44</v>
@@ -4387,7 +4403,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f t="shared" ref="A16:A42" si="2">WEEKNUM(B16)</f>
         <v>44</v>
@@ -4405,7 +4421,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>44</v>
       </c>
@@ -4422,7 +4438,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>45</v>
       </c>
@@ -4439,7 +4455,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -4457,7 +4473,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -4475,7 +4491,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -4490,7 +4506,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -4508,7 +4524,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -4526,7 +4542,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -4544,55 +4560,115 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="B25" s="5">
+        <v>42690</v>
+      </c>
+      <c r="C25" s="6">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="B26" s="5">
+        <v>42693</v>
+      </c>
+      <c r="C26" s="6">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="B27" s="5">
+        <v>42694</v>
+      </c>
+      <c r="C27" s="6">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
+        <v>42696</v>
+      </c>
+      <c r="C28" s="6">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="B29" s="5">
+        <v>42700</v>
+      </c>
+      <c r="C29" s="6">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="B30" s="5">
+        <v>42704</v>
+      </c>
+      <c r="C30" s="6">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4600,7 +4676,7 @@
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4608,7 +4684,7 @@
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4616,7 +4692,7 @@
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4624,7 +4700,7 @@
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4632,7 +4708,7 @@
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4640,7 +4716,7 @@
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4648,7 +4724,7 @@
       <c r="B37" s="3"/>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4656,7 +4732,7 @@
       <c r="B38" s="3"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4664,7 +4740,7 @@
       <c r="B39" s="3"/>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4672,7 +4748,7 @@
       <c r="B40" s="3"/>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4680,7 +4756,7 @@
       <c r="B41" s="3"/>
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4688,23 +4764,23 @@
       <c r="B42" s="3"/>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="1:3" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B43" s="8"/>
       <c r="C43" s="20">
         <f>SUM(C4:C42)</f>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
     </row>
   </sheetData>
@@ -4720,9 +4796,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4786,7 +4862,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42703</v>
+        <v>42704</v>
       </c>
       <c r="J2" s="17">
         <f ca="1">WEEKNUM(I2)</f>
@@ -5031,11 +5107,11 @@
       </c>
       <c r="F10" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A10,'Andreas Lüscher'!$C$4:$C$42)</f>
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G10" s="17">
         <f ca="1">SUM(F$2:F10)</f>
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
@@ -5062,11 +5138,11 @@
       </c>
       <c r="F11" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A11,'Andreas Lüscher'!$C$4:$C$42)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G11" s="17">
         <f ca="1">SUM(F$2:F11)</f>
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -5093,11 +5169,11 @@
       </c>
       <c r="F12" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A12,'Andreas Lüscher'!$C$4:$C$42)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" s="17">
         <f ca="1">SUM(F$2:F12)</f>
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
@@ -5128,7 +5204,7 @@
       </c>
       <c r="G13" s="17">
         <f ca="1">SUM(F$2:F13)</f>
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
@@ -5159,7 +5235,7 @@
       </c>
       <c r="G14" s="17">
         <f ca="1">SUM(F$2:F14)</f>
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -5190,7 +5266,7 @@
       </c>
       <c r="G15" s="17">
         <f ca="1">SUM(F$2:F15)</f>
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
@@ -5221,7 +5297,7 @@
       </c>
       <c r="G16" s="17">
         <f ca="1">SUM(F$2:F16)</f>
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
@@ -5252,7 +5328,7 @@
       </c>
       <c r="G17" s="17">
         <f ca="1">SUM(F$2:F17)</f>
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
@@ -5283,7 +5359,7 @@
       </c>
       <c r="G18" s="17">
         <f ca="1">SUM(F$2:F18)</f>
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
@@ -5314,7 +5390,7 @@
       </c>
       <c r="G19" s="17">
         <f ca="1">SUM(F$2:F19)</f>
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
@@ -5345,7 +5421,7 @@
       </c>
       <c r="G20" s="17">
         <f ca="1">SUM(F$2:F20)</f>
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
@@ -5376,7 +5452,7 @@
       </c>
       <c r="G21" s="17">
         <f ca="1">SUM(F$2:F21)</f>
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
@@ -5407,7 +5483,7 @@
       </c>
       <c r="G22" s="17">
         <f ca="1">SUM(F$2:F22)</f>
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
@@ -5438,7 +5514,7 @@
       </c>
       <c r="G23" s="17">
         <f ca="1">SUM(F$2:F23)</f>
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
@@ -5469,7 +5545,7 @@
       </c>
       <c r="G24" s="17">
         <f ca="1">SUM(F$2:F24)</f>
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
@@ -5500,7 +5576,7 @@
       </c>
       <c r="G25" s="17">
         <f ca="1">SUM(F$2:F25)</f>
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
@@ -5531,7 +5607,7 @@
       </c>
       <c r="G26" s="17">
         <f ca="1">SUM(F$2:F26)</f>
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>

--- a/doc/journal/Arbeitsjournal.xlsx
+++ b/doc/journal/Arbeitsjournal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="16800" windowHeight="19515" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="16800" windowHeight="19515" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsjournal" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="91">
   <si>
     <t>Arbeitsjournal Übersicht</t>
   </si>
@@ -267,6 +267,42 @@
   </si>
   <si>
     <t>Plannung</t>
+  </si>
+  <si>
+    <t>Prototyp 1</t>
+  </si>
+  <si>
+    <t>Erweiterung des Parsers</t>
+  </si>
+  <si>
+    <t>Testflight Zugang</t>
+  </si>
+  <si>
+    <t>Testflight Zugang für eigene Geräte eingerichtet</t>
+  </si>
+  <si>
+    <t>Auswertung der Float Daten / Vergleichen der Daten</t>
+  </si>
+  <si>
+    <t>Meeting Prototyp 1</t>
+  </si>
+  <si>
+    <t>Erweiterung des Prototypen 1 für Präsentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting mit Kunde und Coach </t>
+  </si>
+  <si>
+    <t>Einrichten des Spektrometers und des Apps für Demo</t>
+  </si>
+  <si>
+    <t>Parsing mit anderen Commands / Berrechnung der Drifts</t>
+  </si>
+  <si>
+    <t>Erweiterung des Parsers, Abzug des DC</t>
+  </si>
+  <si>
+    <t>Demo Einrichtung</t>
   </si>
 </sst>
 </file>
@@ -1620,49 +1656,49 @@
                   <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>128</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>128</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>128</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>128</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>128</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>128</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>128</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>128</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>128</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>128</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>128</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>128</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>128</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>128</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>128</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3423,7 +3459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -3474,7 +3510,7 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f ca="1">VLOOKUP(Zusatz!J2,Zusatz!A2:C26,3)</f>
-        <v>168</v>
+        <v>360</v>
       </c>
       <c r="B5" s="7">
         <f>'Raphael Bolliger'!C45</f>
@@ -3482,19 +3518,19 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">B5-A5</f>
-        <v>-35</v>
+        <v>-227</v>
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP(Zusatz!J2,Zusatz!A2:C26,3)</f>
-        <v>168</v>
+        <v>360</v>
       </c>
       <c r="J5" s="7">
         <f>'Andreas Lüscher'!C43</f>
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">J5-I5</f>
-        <v>-40</v>
+        <v>-191</v>
       </c>
     </row>
     <row r="29" spans="13:15" x14ac:dyDescent="0.25">
@@ -3513,7 +3549,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E29" sqref="A24:E29"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4158,8 +4194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4671,68 +4707,148 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="B31" s="5">
+        <v>42707</v>
+      </c>
+      <c r="C31" s="6">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="B32" s="5">
+        <v>42711</v>
+      </c>
+      <c r="C32" s="6">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="B33" s="5">
+        <v>42714</v>
+      </c>
+      <c r="C33" s="6">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="B34" s="5">
+        <v>42716</v>
+      </c>
+      <c r="C34" s="6">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="B35" s="5">
+        <v>42718</v>
+      </c>
+      <c r="C35" s="6">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="B36" s="5">
+        <v>42719</v>
+      </c>
+      <c r="C36" s="6">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="B37" s="5">
+        <v>42720</v>
+      </c>
+      <c r="C37" s="6">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="6"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="A38" si="3">WEEKNUM(B38)</f>
+        <v>51</v>
+      </c>
+      <c r="B38" s="5">
+        <v>42720</v>
+      </c>
+      <c r="C38" s="6">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4740,7 +4856,7 @@
       <c r="B39" s="3"/>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4748,7 +4864,7 @@
       <c r="B40" s="3"/>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4756,7 +4872,7 @@
       <c r="B41" s="3"/>
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4764,23 +4880,23 @@
       <c r="B42" s="3"/>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="1:3" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B43" s="8"/>
       <c r="C43" s="20">
         <f>SUM(C4:C42)</f>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
     </row>
   </sheetData>
@@ -4862,11 +4978,11 @@
       <c r="H2" s="17"/>
       <c r="I2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42704</v>
+        <v>42722</v>
       </c>
       <c r="J2" s="17">
         <f ca="1">WEEKNUM(I2)</f>
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -5169,11 +5285,11 @@
       </c>
       <c r="F12" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A12,'Andreas Lüscher'!$C$4:$C$42)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G12" s="17">
         <f ca="1">SUM(F$2:F12)</f>
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
@@ -5200,11 +5316,11 @@
       </c>
       <c r="F13" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A13,'Andreas Lüscher'!$C$4:$C$42)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G13" s="17">
         <f ca="1">SUM(F$2:F13)</f>
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
@@ -5231,11 +5347,11 @@
       </c>
       <c r="F14" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A14,'Andreas Lüscher'!$C$4:$C$42)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G14" s="17">
         <f ca="1">SUM(F$2:F14)</f>
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -5266,7 +5382,7 @@
       </c>
       <c r="G15" s="17">
         <f ca="1">SUM(F$2:F15)</f>
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
@@ -5297,7 +5413,7 @@
       </c>
       <c r="G16" s="17">
         <f ca="1">SUM(F$2:F16)</f>
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
@@ -5328,7 +5444,7 @@
       </c>
       <c r="G17" s="17">
         <f ca="1">SUM(F$2:F17)</f>
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
@@ -5359,7 +5475,7 @@
       </c>
       <c r="G18" s="17">
         <f ca="1">SUM(F$2:F18)</f>
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
@@ -5390,7 +5506,7 @@
       </c>
       <c r="G19" s="17">
         <f ca="1">SUM(F$2:F19)</f>
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
@@ -5421,7 +5537,7 @@
       </c>
       <c r="G20" s="17">
         <f ca="1">SUM(F$2:F20)</f>
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
@@ -5452,7 +5568,7 @@
       </c>
       <c r="G21" s="17">
         <f ca="1">SUM(F$2:F21)</f>
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
@@ -5483,7 +5599,7 @@
       </c>
       <c r="G22" s="17">
         <f ca="1">SUM(F$2:F22)</f>
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
@@ -5514,7 +5630,7 @@
       </c>
       <c r="G23" s="17">
         <f ca="1">SUM(F$2:F23)</f>
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
@@ -5545,7 +5661,7 @@
       </c>
       <c r="G24" s="17">
         <f ca="1">SUM(F$2:F24)</f>
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
@@ -5576,7 +5692,7 @@
       </c>
       <c r="G25" s="17">
         <f ca="1">SUM(F$2:F25)</f>
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
@@ -5607,7 +5723,7 @@
       </c>
       <c r="G26" s="17">
         <f ca="1">SUM(F$2:F26)</f>
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>

--- a/doc/journal/Arbeitsjournal.xlsx
+++ b/doc/journal/Arbeitsjournal.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Documents\Projects\Spektrometer\portableSpectrometer\doc\journal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Andreas/Projects/Bachelorthesis/portableSpectrometer/doc/journal/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="16800" windowHeight="19515" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="19520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsjournal" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Andreas Lüscher" sheetId="5" r:id="rId3"/>
     <sheet name="Zusatz" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="94">
   <si>
     <t>Arbeitsjournal Übersicht</t>
   </si>
@@ -303,12 +303,21 @@
   </si>
   <si>
     <t>Demo Einrichtung</t>
+  </si>
+  <si>
+    <t>Prototyp 2</t>
+  </si>
+  <si>
+    <t>Optimize Instrument</t>
+  </si>
+  <si>
+    <t>Dark correction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -458,7 +467,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -474,9 +483,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="de-CH"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -518,6 +527,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -578,79 +588,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -662,85 +672,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>104</c:v>
+                  <c:v>104.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>120</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>136</c:v>
+                  <c:v>136.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>152</c:v>
+                  <c:v>152.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>168</c:v>
+                  <c:v>168.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>184</c:v>
+                  <c:v>184.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>216</c:v>
+                  <c:v>216.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>232</c:v>
+                  <c:v>232.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>248</c:v>
+                  <c:v>248.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>264</c:v>
+                  <c:v>264.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>280</c:v>
+                  <c:v>280.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>296</c:v>
+                  <c:v>296.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>312</c:v>
+                  <c:v>312.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>328</c:v>
+                  <c:v>328.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>344</c:v>
+                  <c:v>344.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>360</c:v>
+                  <c:v>360.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8D59-4CCE-98CB-8B5DAB46F197}"/>
             </c:ext>
@@ -771,79 +781,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -855,85 +865,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92</c:v>
+                  <c:v>92.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>108</c:v>
+                  <c:v>108.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>133</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>133</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>133</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>133</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>133</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>133</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>133</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>133</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>133</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>133</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>133</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>133</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>133</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>133</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>133</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>133</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8D59-4CCE-98CB-8B5DAB46F197}"/>
             </c:ext>
@@ -948,11 +958,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1361838784"/>
-        <c:axId val="-1359568384"/>
+        <c:axId val="-621171200"/>
+        <c:axId val="-621167040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1361838784"/>
+        <c:axId val="-621171200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -984,6 +994,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1050,7 +1061,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1359568384"/>
+        <c:crossAx val="-621167040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1058,7 +1069,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1359568384"/>
+        <c:axId val="-621167040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1104,6 +1115,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1164,7 +1176,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1361838784"/>
+        <c:crossAx val="-621171200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1178,6 +1190,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1245,9 +1258,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="de-CH"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1289,6 +1302,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1349,79 +1363,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1433,85 +1447,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>104</c:v>
+                  <c:v>104.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>120</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>136</c:v>
+                  <c:v>136.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>152</c:v>
+                  <c:v>152.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>168</c:v>
+                  <c:v>168.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>184</c:v>
+                  <c:v>184.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>216</c:v>
+                  <c:v>216.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>232</c:v>
+                  <c:v>232.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>248</c:v>
+                  <c:v>248.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>264</c:v>
+                  <c:v>264.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>280</c:v>
+                  <c:v>280.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>296</c:v>
+                  <c:v>296.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>312</c:v>
+                  <c:v>312.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>328</c:v>
+                  <c:v>328.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>344</c:v>
+                  <c:v>344.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>360</c:v>
+                  <c:v>360.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-89D9-4C5C-9F7A-65F21CAB559C}"/>
             </c:ext>
@@ -1542,79 +1556,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1626,85 +1640,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>79</c:v>
+                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>86</c:v>
+                  <c:v>86.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>111</c:v>
+                  <c:v>111.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>126</c:v>
+                  <c:v>126.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>133</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>142</c:v>
+                  <c:v>142.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>169</c:v>
+                  <c:v>169.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>169</c:v>
+                  <c:v>173.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>169</c:v>
+                  <c:v>179.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>169</c:v>
+                  <c:v>179.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>169</c:v>
+                  <c:v>179.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>169</c:v>
+                  <c:v>179.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>169</c:v>
+                  <c:v>179.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>169</c:v>
+                  <c:v>179.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>169</c:v>
+                  <c:v>179.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>169</c:v>
+                  <c:v>179.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>169</c:v>
+                  <c:v>179.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>169</c:v>
+                  <c:v>179.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>169</c:v>
+                  <c:v>179.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-89D9-4C5C-9F7A-65F21CAB559C}"/>
             </c:ext>
@@ -1719,11 +1733,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1377989776"/>
-        <c:axId val="-1377981504"/>
+        <c:axId val="-624024112"/>
+        <c:axId val="-624020720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1377989776"/>
+        <c:axId val="-624024112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1755,6 +1769,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1821,7 +1836,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1377981504"/>
+        <c:crossAx val="-624020720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1829,7 +1844,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1377981504"/>
+        <c:axId val="-624020720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1875,6 +1890,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1935,7 +1951,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1377989776"/>
+        <c:crossAx val="-624024112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1949,6 +1965,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3463,23 +3480,23 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="4.625" customWidth="1"/>
-    <col min="8" max="8" width="4.875" customWidth="1"/>
-    <col min="11" max="11" width="13.875" customWidth="1"/>
-    <col min="13" max="13" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
@@ -3487,7 +3504,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -3507,33 +3524,33 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="e">
         <f ca="1">VLOOKUP(Zusatz!J2,Zusatz!A2:C26,3)</f>
-        <v>360</v>
+        <v>#N/A</v>
       </c>
       <c r="B5" s="7">
         <f>'Raphael Bolliger'!C45</f>
         <v>133</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="7" t="e">
         <f ca="1">B5-A5</f>
-        <v>-227</v>
-      </c>
-      <c r="I5" s="7">
+        <v>#N/A</v>
+      </c>
+      <c r="I5" s="7" t="e">
         <f ca="1">VLOOKUP(Zusatz!J2,Zusatz!A2:C26,3)</f>
-        <v>360</v>
+        <v>#N/A</v>
       </c>
       <c r="J5" s="7">
         <f>'Andreas Lüscher'!C43</f>
-        <v>169</v>
-      </c>
-      <c r="K5" s="7">
+        <v>179</v>
+      </c>
+      <c r="K5" s="7" t="e">
         <f ca="1">J5-I5</f>
-        <v>-191</v>
-      </c>
-    </row>
-    <row r="29" spans="13:15" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="7"/>
@@ -3552,22 +3569,22 @@
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="7" customWidth="1"/>
     <col min="3" max="3" width="13" style="7" customWidth="1"/>
-    <col min="4" max="4" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
     <col min="5" max="5" width="50.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -3584,7 +3601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <f>WEEKNUM(B4)</f>
         <v>39</v>
@@ -3602,7 +3619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <f t="shared" ref="A5:A44" si="0">WEEKNUM(B5)</f>
         <v>40</v>
@@ -3620,7 +3637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3638,7 +3655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3653,7 +3670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3671,7 +3688,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3689,7 +3706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3707,7 +3724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3722,7 +3739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3740,7 +3757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3758,7 +3775,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3776,7 +3793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3794,7 +3811,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3812,7 +3829,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3830,7 +3847,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3848,7 +3865,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3866,7 +3883,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3884,7 +3901,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3902,7 +3919,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3920,7 +3937,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3938,7 +3955,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3956,7 +3973,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3974,7 +3991,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3992,7 +4009,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4010,7 +4027,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4028,7 +4045,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4046,7 +4063,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4054,7 +4071,7 @@
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4062,7 +4079,7 @@
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4070,7 +4087,7 @@
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4078,7 +4095,7 @@
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4086,7 +4103,7 @@
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4094,7 +4111,7 @@
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4102,7 +4119,7 @@
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4110,7 +4127,7 @@
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4118,7 +4135,7 @@
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4126,7 +4143,7 @@
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4134,7 +4151,7 @@
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4142,7 +4159,7 @@
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4150,7 +4167,7 @@
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4158,7 +4175,7 @@
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4166,23 +4183,23 @@
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
     </row>
-    <row r="45" spans="1:3" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B45" s="19"/>
       <c r="C45" s="20">
         <f>SUM(C4:C44)</f>
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B46" s="5"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B47" s="5"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B48" s="5"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="5"/>
     </row>
   </sheetData>
@@ -4195,24 +4212,24 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="13" style="7" customWidth="1"/>
-    <col min="4" max="4" width="34.125" customWidth="1"/>
+    <col min="4" max="4" width="34.1640625" customWidth="1"/>
     <col min="5" max="5" width="50.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="18"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -4229,7 +4246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <f>WEEKNUM(B4)</f>
         <v>39</v>
@@ -4247,7 +4264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <f t="shared" ref="A5:A7" si="0">WEEKNUM(B5)</f>
         <v>40</v>
@@ -4265,7 +4282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4283,7 +4300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4298,7 +4315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <f>WEEKNUM(B8)</f>
         <v>40</v>
@@ -4316,7 +4333,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <f>WEEKNUM(B9)</f>
         <v>41</v>
@@ -4334,7 +4351,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <f>WEEKNUM(B10)</f>
         <v>41</v>
@@ -4352,7 +4369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <f>WEEKNUM(B11)</f>
         <v>42</v>
@@ -4367,7 +4384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <f t="shared" ref="A12" si="1">WEEKNUM(B12)</f>
         <v>40</v>
@@ -4385,7 +4402,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <f>WEEKNUM(B13)</f>
         <v>43</v>
@@ -4403,7 +4420,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <f>WEEKNUM(B14)</f>
         <v>43</v>
@@ -4421,7 +4438,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <f>WEEKNUM(B15)</f>
         <v>44</v>
@@ -4439,7 +4456,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <f t="shared" ref="A16:A42" si="2">WEEKNUM(B16)</f>
         <v>44</v>
@@ -4457,7 +4474,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>44</v>
       </c>
@@ -4474,7 +4491,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>45</v>
       </c>
@@ -4491,7 +4508,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -4509,7 +4526,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -4527,7 +4544,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -4542,7 +4559,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -4560,7 +4577,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -4578,7 +4595,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -4596,7 +4613,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -4614,7 +4631,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -4632,7 +4649,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -4650,7 +4667,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -4668,7 +4685,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -4686,7 +4703,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -4704,7 +4721,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -4722,7 +4739,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -4740,7 +4757,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -4758,7 +4775,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -4776,7 +4793,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -4794,7 +4811,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -4812,7 +4829,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -4830,7 +4847,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <f t="shared" ref="A38" si="3">WEEKNUM(B38)</f>
         <v>51</v>
@@ -4848,23 +4865,43 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="6"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="B39" s="5">
+        <v>42724</v>
+      </c>
+      <c r="C39" s="6">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="6"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B40" s="5">
+        <v>42738</v>
+      </c>
+      <c r="C40" s="6">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4872,7 +4909,7 @@
       <c r="B41" s="3"/>
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4880,23 +4917,23 @@
       <c r="B42" s="3"/>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="1:5" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
       <c r="C43" s="20">
         <f>SUM(C4:C42)</f>
-        <v>169</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B47" s="3"/>
     </row>
   </sheetData>
@@ -4912,9 +4949,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4978,11 +5015,11 @@
       <c r="H2" s="17"/>
       <c r="I2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42722</v>
+        <v>42738</v>
       </c>
       <c r="J2" s="17">
         <f ca="1">WEEKNUM(I2)</f>
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -5378,11 +5415,11 @@
       </c>
       <c r="F15" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A15,'Andreas Lüscher'!$C$4:$C$42)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G15" s="17">
         <f ca="1">SUM(F$2:F15)</f>
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
@@ -5409,11 +5446,11 @@
       </c>
       <c r="F16" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A16,'Andreas Lüscher'!$C$4:$C$42)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G16" s="17">
         <f ca="1">SUM(F$2:F16)</f>
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
@@ -5444,7 +5481,7 @@
       </c>
       <c r="G17" s="17">
         <f ca="1">SUM(F$2:F17)</f>
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
@@ -5475,7 +5512,7 @@
       </c>
       <c r="G18" s="17">
         <f ca="1">SUM(F$2:F18)</f>
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
@@ -5506,7 +5543,7 @@
       </c>
       <c r="G19" s="17">
         <f ca="1">SUM(F$2:F19)</f>
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
@@ -5537,7 +5574,7 @@
       </c>
       <c r="G20" s="17">
         <f ca="1">SUM(F$2:F20)</f>
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
@@ -5568,7 +5605,7 @@
       </c>
       <c r="G21" s="17">
         <f ca="1">SUM(F$2:F21)</f>
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
@@ -5599,7 +5636,7 @@
       </c>
       <c r="G22" s="17">
         <f ca="1">SUM(F$2:F22)</f>
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
@@ -5630,7 +5667,7 @@
       </c>
       <c r="G23" s="17">
         <f ca="1">SUM(F$2:F23)</f>
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
@@ -5661,7 +5698,7 @@
       </c>
       <c r="G24" s="17">
         <f ca="1">SUM(F$2:F24)</f>
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
@@ -5692,7 +5729,7 @@
       </c>
       <c r="G25" s="17">
         <f ca="1">SUM(F$2:F25)</f>
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
@@ -5723,7 +5760,7 @@
       </c>
       <c r="G26" s="17">
         <f ca="1">SUM(F$2:F26)</f>
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>

--- a/doc/journal/Arbeitsjournal.xlsx
+++ b/doc/journal/Arbeitsjournal.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="19520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23220" windowHeight="19520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsjournal" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="96">
   <si>
     <t>Arbeitsjournal Übersicht</t>
   </si>
@@ -312,6 +312,12 @@
   </si>
   <si>
     <t>Dark correction</t>
+  </si>
+  <si>
+    <t>Schreiben eines Indiego Fileheaders</t>
+  </si>
+  <si>
+    <t>Daten parsing für das Indiego Fileformat</t>
   </si>
 </sst>
 </file>
@@ -485,7 +491,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-CH"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -958,11 +964,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-621171200"/>
-        <c:axId val="-621167040"/>
+        <c:axId val="-1529728528"/>
+        <c:axId val="-1592915248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-621171200"/>
+        <c:axId val="-1529728528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1061,7 +1067,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-621167040"/>
+        <c:crossAx val="-1592915248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1069,7 +1075,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-621167040"/>
+        <c:axId val="-1592915248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1176,7 +1182,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-621171200"/>
+        <c:crossAx val="-1529728528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1260,7 +1266,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-CH"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1685,34 +1691,34 @@
                   <c:v>179.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>179.0</c:v>
+                  <c:v>199.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>179.0</c:v>
+                  <c:v>199.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>179.0</c:v>
+                  <c:v>199.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>179.0</c:v>
+                  <c:v>199.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>179.0</c:v>
+                  <c:v>199.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>179.0</c:v>
+                  <c:v>199.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>179.0</c:v>
+                  <c:v>199.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>179.0</c:v>
+                  <c:v>199.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>179.0</c:v>
+                  <c:v>199.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>179.0</c:v>
+                  <c:v>199.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1733,11 +1739,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-624024112"/>
-        <c:axId val="-624020720"/>
+        <c:axId val="-1529715600"/>
+        <c:axId val="-1529711840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-624024112"/>
+        <c:axId val="-1529715600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1836,7 +1842,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-624020720"/>
+        <c:crossAx val="-1529711840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1844,7 +1850,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-624020720"/>
+        <c:axId val="-1529711840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1951,7 +1957,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-624024112"/>
+        <c:crossAx val="-1529715600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3477,7 +3483,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3542,8 +3548,8 @@
         <v>#N/A</v>
       </c>
       <c r="J5" s="7">
-        <f>'Andreas Lüscher'!C43</f>
-        <v>179</v>
+        <f>'Andreas Lüscher'!C50</f>
+        <v>199</v>
       </c>
       <c r="K5" s="7" t="e">
         <f ca="1">J5-I5</f>
@@ -4209,10 +4215,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4458,7 +4464,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
-        <f t="shared" ref="A16:A42" si="2">WEEKNUM(B16)</f>
+        <f t="shared" ref="A16:A49" si="2">WEEKNUM(B16)</f>
         <v>44</v>
       </c>
       <c r="B16" s="5">
@@ -4904,37 +4910,123 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="B41" s="5">
+        <v>42744</v>
+      </c>
+      <c r="C41" s="6">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
+        <f>WEEKNUM(B42)</f>
+        <v>2</v>
+      </c>
+      <c r="B42" s="5">
+        <v>42743</v>
+      </c>
+      <c r="C42" s="6">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
+        <f t="shared" ref="A43:A49" si="4">WEEKNUM(B43)</f>
+        <v>2</v>
+      </c>
+      <c r="B43" s="5">
+        <v>42744</v>
+      </c>
+      <c r="C43" s="6">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="6"/>
-    </row>
-    <row r="43" spans="1:5" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="B43" s="8"/>
-      <c r="C43" s="20">
-        <f>SUM(C4:C42)</f>
-        <v>179</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B44" s="3"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="6"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="3"/>
+      <c r="A45" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="6"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="3"/>
+      <c r="A46" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="6"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="3"/>
+      <c r="A47" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="1:3" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B50" s="8"/>
+      <c r="C50" s="20">
+        <f>SUM(C4:C49)</f>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B54" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5005,7 +5097,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A2,'Andreas Lüscher'!$C$4:$C$42)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A2,'Andreas Lüscher'!$C$4:$C$49)</f>
         <v>3</v>
       </c>
       <c r="G2" s="17">
@@ -5015,11 +5107,11 @@
       <c r="H2" s="17"/>
       <c r="I2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42738</v>
+        <v>42751</v>
       </c>
       <c r="J2" s="17">
         <f ca="1">WEEKNUM(I2)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -5042,7 +5134,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A3,'Andreas Lüscher'!$C$4:$C$42)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A3,'Andreas Lüscher'!$C$4:$C$49)</f>
         <v>26</v>
       </c>
       <c r="G3" s="17">
@@ -5073,7 +5165,7 @@
         <v>32</v>
       </c>
       <c r="F4" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A4,'Andreas Lüscher'!$C$4:$C$42)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A4,'Andreas Lüscher'!$C$4:$C$49)</f>
         <v>11</v>
       </c>
       <c r="G4" s="17">
@@ -5104,7 +5196,7 @@
         <v>43</v>
       </c>
       <c r="F5" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A5,'Andreas Lüscher'!$C$4:$C$42)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A5,'Andreas Lüscher'!$C$4:$C$49)</f>
         <v>3</v>
       </c>
       <c r="G5" s="17">
@@ -5135,7 +5227,7 @@
         <v>57</v>
       </c>
       <c r="F6" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A6,'Andreas Lüscher'!$C$4:$C$42)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A6,'Andreas Lüscher'!$C$4:$C$49)</f>
         <v>14</v>
       </c>
       <c r="G6" s="17">
@@ -5166,7 +5258,7 @@
         <v>83</v>
       </c>
       <c r="F7" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A7,'Andreas Lüscher'!$C$4:$C$42)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A7,'Andreas Lüscher'!$C$4:$C$49)</f>
         <v>12</v>
       </c>
       <c r="G7" s="17">
@@ -5197,7 +5289,7 @@
         <v>92</v>
       </c>
       <c r="F8" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A8,'Andreas Lüscher'!$C$4:$C$42)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A8,'Andreas Lüscher'!$C$4:$C$49)</f>
         <v>10</v>
       </c>
       <c r="G8" s="17">
@@ -5228,7 +5320,7 @@
         <v>96</v>
       </c>
       <c r="F9" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A9,'Andreas Lüscher'!$C$4:$C$42)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A9,'Andreas Lüscher'!$C$4:$C$49)</f>
         <v>7</v>
       </c>
       <c r="G9" s="17">
@@ -5259,7 +5351,7 @@
         <v>108</v>
       </c>
       <c r="F10" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A10,'Andreas Lüscher'!$C$4:$C$42)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A10,'Andreas Lüscher'!$C$4:$C$49)</f>
         <v>25</v>
       </c>
       <c r="G10" s="17">
@@ -5290,7 +5382,7 @@
         <v>133</v>
       </c>
       <c r="F11" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A11,'Andreas Lüscher'!$C$4:$C$42)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A11,'Andreas Lüscher'!$C$4:$C$49)</f>
         <v>15</v>
       </c>
       <c r="G11" s="17">
@@ -5321,7 +5413,7 @@
         <v>133</v>
       </c>
       <c r="F12" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A12,'Andreas Lüscher'!$C$4:$C$42)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A12,'Andreas Lüscher'!$C$4:$C$49)</f>
         <v>7</v>
       </c>
       <c r="G12" s="17">
@@ -5352,7 +5444,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A13,'Andreas Lüscher'!$C$4:$C$42)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A13,'Andreas Lüscher'!$C$4:$C$49)</f>
         <v>9</v>
       </c>
       <c r="G13" s="17">
@@ -5383,7 +5475,7 @@
         <v>133</v>
       </c>
       <c r="F14" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A14,'Andreas Lüscher'!$C$4:$C$42)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A14,'Andreas Lüscher'!$C$4:$C$49)</f>
         <v>27</v>
       </c>
       <c r="G14" s="17">
@@ -5414,7 +5506,7 @@
         <v>133</v>
       </c>
       <c r="F15" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A15,'Andreas Lüscher'!$C$4:$C$42)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A15,'Andreas Lüscher'!$C$4:$C$49)</f>
         <v>4</v>
       </c>
       <c r="G15" s="17">
@@ -5445,7 +5537,7 @@
         <v>133</v>
       </c>
       <c r="F16" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A16,'Andreas Lüscher'!$C$4:$C$42)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A16,'Andreas Lüscher'!$C$4:$C$49)</f>
         <v>6</v>
       </c>
       <c r="G16" s="17">
@@ -5476,12 +5568,12 @@
         <v>133</v>
       </c>
       <c r="F17" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A17,'Andreas Lüscher'!$C$4:$C$42)</f>
-        <v>0</v>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A17,'Andreas Lüscher'!$C$4:$C$49)</f>
+        <v>20</v>
       </c>
       <c r="G17" s="17">
         <f ca="1">SUM(F$2:F17)</f>
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
@@ -5507,12 +5599,12 @@
         <v>133</v>
       </c>
       <c r="F18" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A18,'Andreas Lüscher'!$C$4:$C$42)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A18,'Andreas Lüscher'!$C$4:$C$49)</f>
         <v>0</v>
       </c>
       <c r="G18" s="17">
         <f ca="1">SUM(F$2:F18)</f>
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
@@ -5538,12 +5630,12 @@
         <v>133</v>
       </c>
       <c r="F19" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A19,'Andreas Lüscher'!$C$4:$C$42)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A19,'Andreas Lüscher'!$C$4:$C$49)</f>
         <v>0</v>
       </c>
       <c r="G19" s="17">
         <f ca="1">SUM(F$2:F19)</f>
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
@@ -5569,12 +5661,12 @@
         <v>133</v>
       </c>
       <c r="F20" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A20,'Andreas Lüscher'!$C$4:$C$42)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A20,'Andreas Lüscher'!$C$4:$C$49)</f>
         <v>0</v>
       </c>
       <c r="G20" s="17">
         <f ca="1">SUM(F$2:F20)</f>
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
@@ -5600,12 +5692,12 @@
         <v>133</v>
       </c>
       <c r="F21" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A21,'Andreas Lüscher'!$C$4:$C$42)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A21,'Andreas Lüscher'!$C$4:$C$49)</f>
         <v>0</v>
       </c>
       <c r="G21" s="17">
         <f ca="1">SUM(F$2:F21)</f>
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
@@ -5631,12 +5723,12 @@
         <v>133</v>
       </c>
       <c r="F22" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A22,'Andreas Lüscher'!$C$4:$C$42)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A22,'Andreas Lüscher'!$C$4:$C$49)</f>
         <v>0</v>
       </c>
       <c r="G22" s="17">
         <f ca="1">SUM(F$2:F22)</f>
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
@@ -5662,12 +5754,12 @@
         <v>133</v>
       </c>
       <c r="F23" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A23,'Andreas Lüscher'!$C$4:$C$42)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A23,'Andreas Lüscher'!$C$4:$C$49)</f>
         <v>0</v>
       </c>
       <c r="G23" s="17">
         <f ca="1">SUM(F$2:F23)</f>
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
@@ -5693,12 +5785,12 @@
         <v>133</v>
       </c>
       <c r="F24" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A24,'Andreas Lüscher'!$C$4:$C$42)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A24,'Andreas Lüscher'!$C$4:$C$49)</f>
         <v>0</v>
       </c>
       <c r="G24" s="17">
         <f ca="1">SUM(F$2:F24)</f>
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
@@ -5724,12 +5816,12 @@
         <v>133</v>
       </c>
       <c r="F25" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A25,'Andreas Lüscher'!$C$4:$C$42)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A25,'Andreas Lüscher'!$C$4:$C$49)</f>
         <v>0</v>
       </c>
       <c r="G25" s="17">
         <f ca="1">SUM(F$2:F25)</f>
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
@@ -5755,12 +5847,12 @@
         <v>133</v>
       </c>
       <c r="F26" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$42,A26,'Andreas Lüscher'!$C$4:$C$42)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A26,'Andreas Lüscher'!$C$4:$C$49)</f>
         <v>0</v>
       </c>
       <c r="G26" s="17">
         <f ca="1">SUM(F$2:F26)</f>
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>

--- a/doc/journal/Arbeitsjournal.xlsx
+++ b/doc/journal/Arbeitsjournal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23220" windowHeight="19520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18700" windowHeight="19520" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsjournal" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>Arbeitsjournal Übersicht</t>
   </si>
@@ -318,6 +318,33 @@
   </si>
   <si>
     <t>Daten parsing für das Indiego Fileformat</t>
+  </si>
+  <si>
+    <t>Dynamisches Schreiben eines Indiego Files</t>
+  </si>
+  <si>
+    <t>PageViewController hinzugefügt sowie Verbesserungen am FileWriter vorgenommen</t>
+  </si>
+  <si>
+    <t>View für schnelles Messen einer kompletten Messreihe implementiert</t>
+  </si>
+  <si>
+    <t>Messdaten auf Disk schreiben</t>
+  </si>
+  <si>
+    <t>Code refactoring</t>
+  </si>
+  <si>
+    <t>Whiterefrence wird entsprechend der Auswahl gemacht</t>
+  </si>
+  <si>
+    <t>Filebrowser ersetzt mit eigener Implementation</t>
+  </si>
+  <si>
+    <t>Cocoapods hinzugefügt</t>
+  </si>
+  <si>
+    <t>Messreihen werden im ParentViewController zwischengespeichert (inkl WR)</t>
   </si>
 </sst>
 </file>
@@ -964,11 +991,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1529728528"/>
-        <c:axId val="-1592915248"/>
+        <c:axId val="1104419648"/>
+        <c:axId val="1104424352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1529728528"/>
+        <c:axId val="1104419648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1067,7 +1094,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1592915248"/>
+        <c:crossAx val="1104424352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1075,7 +1102,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1592915248"/>
+        <c:axId val="1104424352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1182,7 +1209,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1529728528"/>
+        <c:crossAx val="1104419648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1694,31 +1721,31 @@
                   <c:v>199.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>199.0</c:v>
+                  <c:v>215.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>199.0</c:v>
+                  <c:v>227.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>199.0</c:v>
+                  <c:v>249.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>199.0</c:v>
+                  <c:v>249.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>199.0</c:v>
+                  <c:v>249.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>199.0</c:v>
+                  <c:v>249.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>199.0</c:v>
+                  <c:v>249.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>199.0</c:v>
+                  <c:v>249.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>199.0</c:v>
+                  <c:v>249.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1739,11 +1766,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1529715600"/>
-        <c:axId val="-1529711840"/>
+        <c:axId val="1044719056"/>
+        <c:axId val="1044723088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1529715600"/>
+        <c:axId val="1044719056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1842,7 +1869,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1529711840"/>
+        <c:crossAx val="1044723088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1850,7 +1877,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1529711840"/>
+        <c:axId val="1044723088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,7 +1984,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1529715600"/>
+        <c:crossAx val="1044719056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3482,8 +3509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3548,8 +3575,8 @@
         <v>#N/A</v>
       </c>
       <c r="J5" s="7">
-        <f>'Andreas Lüscher'!C50</f>
-        <v>199</v>
+        <f>'Andreas Lüscher'!C58</f>
+        <v>249</v>
       </c>
       <c r="K5" s="7" t="e">
         <f ca="1">J5-I5</f>
@@ -4215,10 +4242,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4464,7 +4491,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
-        <f t="shared" ref="A16:A49" si="2">WEEKNUM(B16)</f>
+        <f t="shared" ref="A16:A47" si="2">WEEKNUM(B16)</f>
         <v>44</v>
       </c>
       <c r="B16" s="5">
@@ -4945,7 +4972,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
-        <f t="shared" ref="A43:A49" si="4">WEEKNUM(B43)</f>
+        <f t="shared" ref="A43:A57" si="4">WEEKNUM(B43)</f>
         <v>2</v>
       </c>
       <c r="B43" s="5">
@@ -4964,69 +4991,222 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="B44" s="5">
+        <v>42751</v>
+      </c>
+      <c r="C44" s="6">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="B45" s="5">
+        <v>42753</v>
+      </c>
+      <c r="C45" s="6">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="B46" s="5">
+        <v>42755</v>
+      </c>
+      <c r="C46" s="6">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="B47" s="5">
+        <v>42758</v>
+      </c>
+      <c r="C47" s="6">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B48" s="5">
+        <v>42759</v>
+      </c>
+      <c r="C48" s="6">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
+        <f>WEEKNUM(B49)</f>
+        <v>4</v>
+      </c>
+      <c r="B49" s="5">
+        <v>42760</v>
+      </c>
+      <c r="C49" s="6">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="7">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B50" s="5">
+        <v>42765</v>
+      </c>
+      <c r="C50" s="6">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="7">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B51" s="5">
+        <v>42766</v>
+      </c>
+      <c r="C51" s="6">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="7">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B52" s="5">
+        <v>42767</v>
+      </c>
+      <c r="C52" s="6">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="6"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
-        <f t="shared" si="2"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="6"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="6"/>
-    </row>
-    <row r="50" spans="1:3" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="B50" s="8"/>
-      <c r="C50" s="20">
-        <f>SUM(C4:C49)</f>
-        <v>199</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B54" s="3"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="6"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="6"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="6"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" spans="1:5" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B58" s="8"/>
+      <c r="C58" s="20">
+        <f>SUM(C4:C56)</f>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5097,7 +5277,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A2,'Andreas Lüscher'!$C$4:$C$49)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A2,'Andreas Lüscher'!$C$4:$C$56)</f>
         <v>3</v>
       </c>
       <c r="G2" s="17">
@@ -5107,11 +5287,11 @@
       <c r="H2" s="17"/>
       <c r="I2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42751</v>
+        <v>42767</v>
       </c>
       <c r="J2" s="17">
         <f ca="1">WEEKNUM(I2)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -5134,7 +5314,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A3,'Andreas Lüscher'!$C$4:$C$49)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A3,'Andreas Lüscher'!$C$4:$C$56)</f>
         <v>26</v>
       </c>
       <c r="G3" s="17">
@@ -5165,7 +5345,7 @@
         <v>32</v>
       </c>
       <c r="F4" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A4,'Andreas Lüscher'!$C$4:$C$49)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A4,'Andreas Lüscher'!$C$4:$C$56)</f>
         <v>11</v>
       </c>
       <c r="G4" s="17">
@@ -5196,7 +5376,7 @@
         <v>43</v>
       </c>
       <c r="F5" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A5,'Andreas Lüscher'!$C$4:$C$49)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A5,'Andreas Lüscher'!$C$4:$C$56)</f>
         <v>3</v>
       </c>
       <c r="G5" s="17">
@@ -5227,7 +5407,7 @@
         <v>57</v>
       </c>
       <c r="F6" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A6,'Andreas Lüscher'!$C$4:$C$49)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A6,'Andreas Lüscher'!$C$4:$C$56)</f>
         <v>14</v>
       </c>
       <c r="G6" s="17">
@@ -5258,7 +5438,7 @@
         <v>83</v>
       </c>
       <c r="F7" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A7,'Andreas Lüscher'!$C$4:$C$49)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A7,'Andreas Lüscher'!$C$4:$C$56)</f>
         <v>12</v>
       </c>
       <c r="G7" s="17">
@@ -5289,7 +5469,7 @@
         <v>92</v>
       </c>
       <c r="F8" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A8,'Andreas Lüscher'!$C$4:$C$49)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A8,'Andreas Lüscher'!$C$4:$C$56)</f>
         <v>10</v>
       </c>
       <c r="G8" s="17">
@@ -5320,7 +5500,7 @@
         <v>96</v>
       </c>
       <c r="F9" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A9,'Andreas Lüscher'!$C$4:$C$49)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A9,'Andreas Lüscher'!$C$4:$C$56)</f>
         <v>7</v>
       </c>
       <c r="G9" s="17">
@@ -5351,7 +5531,7 @@
         <v>108</v>
       </c>
       <c r="F10" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A10,'Andreas Lüscher'!$C$4:$C$49)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A10,'Andreas Lüscher'!$C$4:$C$56)</f>
         <v>25</v>
       </c>
       <c r="G10" s="17">
@@ -5382,7 +5562,7 @@
         <v>133</v>
       </c>
       <c r="F11" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A11,'Andreas Lüscher'!$C$4:$C$49)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A11,'Andreas Lüscher'!$C$4:$C$56)</f>
         <v>15</v>
       </c>
       <c r="G11" s="17">
@@ -5413,7 +5593,7 @@
         <v>133</v>
       </c>
       <c r="F12" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A12,'Andreas Lüscher'!$C$4:$C$49)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A12,'Andreas Lüscher'!$C$4:$C$56)</f>
         <v>7</v>
       </c>
       <c r="G12" s="17">
@@ -5444,7 +5624,7 @@
         <v>133</v>
       </c>
       <c r="F13" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A13,'Andreas Lüscher'!$C$4:$C$49)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A13,'Andreas Lüscher'!$C$4:$C$56)</f>
         <v>9</v>
       </c>
       <c r="G13" s="17">
@@ -5475,7 +5655,7 @@
         <v>133</v>
       </c>
       <c r="F14" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A14,'Andreas Lüscher'!$C$4:$C$49)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A14,'Andreas Lüscher'!$C$4:$C$56)</f>
         <v>27</v>
       </c>
       <c r="G14" s="17">
@@ -5506,7 +5686,7 @@
         <v>133</v>
       </c>
       <c r="F15" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A15,'Andreas Lüscher'!$C$4:$C$49)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A15,'Andreas Lüscher'!$C$4:$C$56)</f>
         <v>4</v>
       </c>
       <c r="G15" s="17">
@@ -5537,7 +5717,7 @@
         <v>133</v>
       </c>
       <c r="F16" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A16,'Andreas Lüscher'!$C$4:$C$49)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A16,'Andreas Lüscher'!$C$4:$C$56)</f>
         <v>6</v>
       </c>
       <c r="G16" s="17">
@@ -5568,7 +5748,7 @@
         <v>133</v>
       </c>
       <c r="F17" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A17,'Andreas Lüscher'!$C$4:$C$49)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A17,'Andreas Lüscher'!$C$4:$C$56)</f>
         <v>20</v>
       </c>
       <c r="G17" s="17">
@@ -5599,12 +5779,12 @@
         <v>133</v>
       </c>
       <c r="F18" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A18,'Andreas Lüscher'!$C$4:$C$49)</f>
-        <v>0</v>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A18,'Andreas Lüscher'!$C$4:$C$56)</f>
+        <v>16</v>
       </c>
       <c r="G18" s="17">
         <f ca="1">SUM(F$2:F18)</f>
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
@@ -5630,12 +5810,12 @@
         <v>133</v>
       </c>
       <c r="F19" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A19,'Andreas Lüscher'!$C$4:$C$49)</f>
-        <v>0</v>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A19,'Andreas Lüscher'!$C$4:$C$56)</f>
+        <v>12</v>
       </c>
       <c r="G19" s="17">
         <f ca="1">SUM(F$2:F19)</f>
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
@@ -5661,12 +5841,12 @@
         <v>133</v>
       </c>
       <c r="F20" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A20,'Andreas Lüscher'!$C$4:$C$49)</f>
-        <v>0</v>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A20,'Andreas Lüscher'!$C$4:$C$56)</f>
+        <v>22</v>
       </c>
       <c r="G20" s="17">
         <f ca="1">SUM(F$2:F20)</f>
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
@@ -5692,12 +5872,12 @@
         <v>133</v>
       </c>
       <c r="F21" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A21,'Andreas Lüscher'!$C$4:$C$49)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A21,'Andreas Lüscher'!$C$4:$C$56)</f>
         <v>0</v>
       </c>
       <c r="G21" s="17">
         <f ca="1">SUM(F$2:F21)</f>
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
@@ -5723,12 +5903,12 @@
         <v>133</v>
       </c>
       <c r="F22" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A22,'Andreas Lüscher'!$C$4:$C$49)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A22,'Andreas Lüscher'!$C$4:$C$56)</f>
         <v>0</v>
       </c>
       <c r="G22" s="17">
         <f ca="1">SUM(F$2:F22)</f>
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
@@ -5754,12 +5934,12 @@
         <v>133</v>
       </c>
       <c r="F23" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A23,'Andreas Lüscher'!$C$4:$C$49)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A23,'Andreas Lüscher'!$C$4:$C$56)</f>
         <v>0</v>
       </c>
       <c r="G23" s="17">
         <f ca="1">SUM(F$2:F23)</f>
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
@@ -5785,12 +5965,12 @@
         <v>133</v>
       </c>
       <c r="F24" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A24,'Andreas Lüscher'!$C$4:$C$49)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A24,'Andreas Lüscher'!$C$4:$C$56)</f>
         <v>0</v>
       </c>
       <c r="G24" s="17">
         <f ca="1">SUM(F$2:F24)</f>
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
@@ -5816,12 +5996,12 @@
         <v>133</v>
       </c>
       <c r="F25" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A25,'Andreas Lüscher'!$C$4:$C$49)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A25,'Andreas Lüscher'!$C$4:$C$56)</f>
         <v>0</v>
       </c>
       <c r="G25" s="17">
         <f ca="1">SUM(F$2:F25)</f>
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
@@ -5847,12 +6027,12 @@
         <v>133</v>
       </c>
       <c r="F26" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$49,A26,'Andreas Lüscher'!$C$4:$C$49)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A26,'Andreas Lüscher'!$C$4:$C$56)</f>
         <v>0</v>
       </c>
       <c r="G26" s="17">
         <f ca="1">SUM(F$2:F26)</f>
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>

--- a/doc/journal/Arbeitsjournal.xlsx
+++ b/doc/journal/Arbeitsjournal.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="106">
   <si>
     <t>Arbeitsjournal Übersicht</t>
   </si>
@@ -345,6 +345,9 @@
   </si>
   <si>
     <t>Messreihen werden im ParentViewController zwischengespeichert (inkl WR)</t>
+  </si>
+  <si>
+    <t>Prototyp 3</t>
   </si>
 </sst>
 </file>
@@ -560,7 +563,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -991,11 +993,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1104419648"/>
-        <c:axId val="1104424352"/>
+        <c:axId val="375078352"/>
+        <c:axId val="476097936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1104419648"/>
+        <c:axId val="375078352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1027,7 +1029,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1094,7 +1095,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1104424352"/>
+        <c:crossAx val="476097936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1102,7 +1103,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1104424352"/>
+        <c:axId val="476097936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1148,7 +1149,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1209,7 +1209,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1104419648"/>
+        <c:crossAx val="375078352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1223,7 +1223,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1335,7 +1334,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1766,11 +1764,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1044719056"/>
-        <c:axId val="1044723088"/>
+        <c:axId val="476144000"/>
+        <c:axId val="476148032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1044719056"/>
+        <c:axId val="476144000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1802,7 +1800,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1869,7 +1866,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1044723088"/>
+        <c:crossAx val="476148032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1877,7 +1874,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1044723088"/>
+        <c:axId val="476148032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1923,7 +1920,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1984,7 +1980,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1044719056"/>
+        <c:crossAx val="476144000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1998,7 +1994,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4245,7 +4240,7 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5108,7 +5103,7 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E50" t="s">
         <v>101</v>
@@ -5126,7 +5121,7 @@
         <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E51" t="s">
         <v>102</v>
@@ -5144,7 +5139,7 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E52" t="s">
         <v>103</v>

--- a/doc/journal/Arbeitsjournal.xlsx
+++ b/doc/journal/Arbeitsjournal.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Andreas/Projects/Bachelorthesis/portableSpectrometer/doc/journal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Daten/Spektrometer/portableSpectrometer/doc/journal/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18700" windowHeight="19520" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="49560" windowHeight="24720" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsjournal" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="154">
   <si>
     <t>Arbeitsjournal Übersicht</t>
   </si>
@@ -348,6 +348,150 @@
   </si>
   <si>
     <t>Prototyp 3</t>
+  </si>
+  <si>
+    <t>Verbesserung hinzufügen eines neuen Spektrometers im App</t>
+  </si>
+  <si>
+    <t>Fertigstellung des Pflichtenhefts</t>
+  </si>
+  <si>
+    <t>Erste implementation eines FileReader, update diverser Dokumente</t>
+  </si>
+  <si>
+    <t>Dokumente und FileReader</t>
+  </si>
+  <si>
+    <t>FileReader</t>
+  </si>
+  <si>
+    <t>FileReader verbessert</t>
+  </si>
+  <si>
+    <t>TestFlight und Icon</t>
+  </si>
+  <si>
+    <t>Einrichtung des TestFlight Accounts und erstellen eines AppIcons</t>
+  </si>
+  <si>
+    <t>Verbesserung und fertigstellung des FileReader</t>
+  </si>
+  <si>
+    <t>Bearbeiten einer Konfiguration implementiert, verschiedene Bugfixes vor dem Prototyp release</t>
+  </si>
+  <si>
+    <t>Chart View</t>
+  </si>
+  <si>
+    <t>Implementierung des Chart Frameworks inkl. Styling</t>
+  </si>
+  <si>
+    <t>Aquire Command</t>
+  </si>
+  <si>
+    <t>Erste implementierung der Spektrometer Befehle, im speziellen der "A" Befehl</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>Meeting zum Prototyp 1 inkl. Vorbereitungen</t>
+  </si>
+  <si>
+    <t>Fertigstellung des Prototyp 1 inkl. Vorbereitungen zur Übermittlung ins TestFlight</t>
+  </si>
+  <si>
+    <t>CoreData und Dokumentation</t>
+  </si>
+  <si>
+    <t>Speichern der SpectrometerConfig in CoreData und erste Version der Schlussdokumentation erstellt</t>
+  </si>
+  <si>
+    <t>UI und Bugfixes</t>
+  </si>
+  <si>
+    <t>Verschiedenste UI Anpassungen (TabBar / Settings, etc.) und BugFixes vor dem Prototyp 2 release</t>
+  </si>
+  <si>
+    <t>Measurement UI</t>
+  </si>
+  <si>
+    <t>UI der Messungen erstellt</t>
+  </si>
+  <si>
+    <t>Export</t>
+  </si>
+  <si>
+    <t>Umsetzung der gesamten Datei/Ordner Export funktionen</t>
+  </si>
+  <si>
+    <t>Verbesserungen</t>
+  </si>
+  <si>
+    <t>Verbesserungen an FileBrowser, Messungs UI, FileExport</t>
+  </si>
+  <si>
+    <t>Messungsablauf</t>
+  </si>
+  <si>
+    <t>Messungsablauf und UI verbessert</t>
+  </si>
+  <si>
+    <t>Codeoptimierungen</t>
+  </si>
+  <si>
+    <t>Verbesserungen und Fehlerbehebung beim FileReader. Erweiter um Reflectance und Radiance Dateien zu lesen</t>
+  </si>
+  <si>
+    <t>FileReader, UI</t>
+  </si>
+  <si>
+    <t>Custom UI Komponenten erstellt, weitere Verbesserungen am FileReader</t>
+  </si>
+  <si>
+    <t>Messungseinstellungen</t>
+  </si>
+  <si>
+    <t>Design aller Messungseinstellungs Views</t>
+  </si>
+  <si>
+    <t>Custom ProgressBar, Design der Messungseinstellungen</t>
+  </si>
+  <si>
+    <t>Custom Selects (File and Path inputs)</t>
+  </si>
+  <si>
+    <t>RadioButtons und verbesserung der CustomSelects</t>
+  </si>
+  <si>
+    <t>Validierung</t>
+  </si>
+  <si>
+    <t>Implementierung der Validierung für CustomSelects</t>
+  </si>
+  <si>
+    <t>Verbesserungen an diversen Orten: MeasurementSettings, Validierung, Save and Load Settings to UserDefaults</t>
+  </si>
+  <si>
+    <t>Redesign der Add Spectrometer View. Verbesserungen der ProgressBar. Erster Entwurf der Startseite.</t>
+  </si>
+  <si>
+    <t>Implementierung einer StackView für die Startseite um Portrait und Landscape zu unterstützen</t>
+  </si>
+  <si>
+    <t>Verbesserungen an vielen Komponenten: SpectrometerConfig, AuqireView, FiberOptic select</t>
+  </si>
+  <si>
+    <t>Enum mit default Werten / FiberOptic Datei validierung / DarkCurrent Berechnung / Aquire Start/Stop funktionalität / Parse Double bei INIT Befehl anders</t>
+  </si>
+  <si>
+    <t>Radiance Berechnung / TCP Manager / AquireView / Settings Values beachten / GlobalStore eingeführt / Kommentarfeld für Messungen</t>
+  </si>
+  <si>
+    <t>Bugfixes</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
   </si>
 </sst>
 </file>
@@ -563,6 +707,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -930,49 +1075,49 @@
                   <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>133.0</c:v>
+                  <c:v>157.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>133.0</c:v>
+                  <c:v>174.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>133.0</c:v>
+                  <c:v>187.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>133.0</c:v>
+                  <c:v>195.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>133.0</c:v>
+                  <c:v>195.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>133.0</c:v>
+                  <c:v>195.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>133.0</c:v>
+                  <c:v>196.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>133.0</c:v>
+                  <c:v>220.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>133.0</c:v>
+                  <c:v>238.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>133.0</c:v>
+                  <c:v>257.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>133.0</c:v>
+                  <c:v>289.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>133.0</c:v>
+                  <c:v>333.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>133.0</c:v>
+                  <c:v>386.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>133.0</c:v>
+                  <c:v>404.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>133.0</c:v>
+                  <c:v>404.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -993,11 +1138,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="375078352"/>
-        <c:axId val="476097936"/>
+        <c:axId val="-252960432"/>
+        <c:axId val="-123994272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="375078352"/>
+        <c:axId val="-252960432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1029,6 +1174,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1095,7 +1241,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476097936"/>
+        <c:crossAx val="-123994272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1103,7 +1249,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="476097936"/>
+        <c:axId val="-123994272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1149,6 +1295,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1209,7 +1356,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="375078352"/>
+        <c:crossAx val="-252960432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1223,6 +1370,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1334,6 +1482,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1764,11 +1913,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="476144000"/>
-        <c:axId val="476148032"/>
+        <c:axId val="-153440592"/>
+        <c:axId val="-253121520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="476144000"/>
+        <c:axId val="-153440592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1800,6 +1949,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1866,7 +2016,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476148032"/>
+        <c:crossAx val="-253121520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1874,7 +2024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="476148032"/>
+        <c:axId val="-253121520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1920,6 +2070,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1980,7 +2131,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476144000"/>
+        <c:crossAx val="-153440592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1994,6 +2145,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3505,7 +3657,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3558,8 +3710,8 @@
         <v>#N/A</v>
       </c>
       <c r="B5" s="7">
-        <f>'Raphael Bolliger'!C45</f>
-        <v>133</v>
+        <f>'Raphael Bolliger'!C76</f>
+        <v>404</v>
       </c>
       <c r="C5" s="7" t="e">
         <f ca="1">B5-A5</f>
@@ -3591,10 +3743,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3649,7 +3801,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
-        <f t="shared" ref="A5:A44" si="0">WEEKNUM(B5)</f>
+        <f t="shared" ref="A5:A75" si="0">WEEKNUM(B5)</f>
         <v>40</v>
       </c>
       <c r="B5" s="5">
@@ -4094,141 +4246,745 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="B30" s="5">
+        <v>42703</v>
+      </c>
+      <c r="C30" s="6">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="B31" s="5">
+        <v>42703</v>
+      </c>
+      <c r="C31" s="6">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B32" s="5">
+        <v>42706</v>
+      </c>
+      <c r="C32" s="6">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B33" s="5">
+        <v>42707</v>
+      </c>
+      <c r="C33" s="6">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B34" s="5">
+        <v>42710</v>
+      </c>
+      <c r="C34" s="6">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B35" s="5">
+        <v>42711</v>
+      </c>
+      <c r="C35" s="6">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B36" s="5">
+        <v>42713</v>
+      </c>
+      <c r="C36" s="6">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B37" s="5">
+        <v>42714</v>
+      </c>
+      <c r="C37" s="6">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B38" s="5">
+        <v>42716</v>
+      </c>
+      <c r="C38" s="6">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B39" s="5">
+        <v>42720</v>
+      </c>
+      <c r="C39" s="6">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B40" s="5">
+        <v>42722</v>
+      </c>
+      <c r="C40" s="6">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B41" s="5">
+        <v>42752</v>
+      </c>
+      <c r="C41" s="6">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B42" s="5">
+        <v>42759</v>
+      </c>
+      <c r="C42" s="6">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B43" s="5">
+        <v>42760</v>
+      </c>
+      <c r="C43" s="6">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B44" s="5">
+        <v>42761</v>
+      </c>
+      <c r="C44" s="6">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>127</v>
+      </c>
+      <c r="E44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B45" s="5">
+        <v>42768</v>
+      </c>
+      <c r="C45" s="6">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B46" s="5">
+        <v>42770</v>
+      </c>
+      <c r="C46" s="6">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B47" s="5">
+        <v>42771</v>
+      </c>
+      <c r="C47" s="6">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B48" s="5">
+        <v>42774</v>
+      </c>
+      <c r="C48" s="6">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B49" s="5">
+        <v>42775</v>
+      </c>
+      <c r="C49" s="6">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B50" s="5">
+        <v>42780</v>
+      </c>
+      <c r="C50" s="6">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>137</v>
+      </c>
+      <c r="E50" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B51" s="5">
+        <v>42781</v>
+      </c>
+      <c r="C51" s="6">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>139</v>
+      </c>
+      <c r="E51" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B52" s="5">
+        <v>42782</v>
+      </c>
+      <c r="C52" s="6">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B53" s="5">
+        <v>42783</v>
+      </c>
+      <c r="C53" s="6">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B54" s="5">
+        <v>42785</v>
+      </c>
+      <c r="C54" s="6">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E54" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B55" s="5">
+        <v>42786</v>
+      </c>
+      <c r="C55" s="6">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>144</v>
+      </c>
+      <c r="E55" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B56" s="5">
+        <v>42787</v>
+      </c>
+      <c r="C56" s="6">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E56" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B57" s="5">
+        <v>42788</v>
+      </c>
+      <c r="C57" s="6">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>71</v>
+      </c>
+      <c r="E57" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B58" s="5">
+        <v>42789</v>
+      </c>
+      <c r="C58" s="6">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E58" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B59" s="5">
+        <v>42791</v>
+      </c>
+      <c r="C59" s="6">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B60" s="5">
+        <v>42793</v>
+      </c>
+      <c r="C60" s="6">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B61" s="5">
+        <v>42793</v>
+      </c>
+      <c r="C61" s="6">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>131</v>
+      </c>
+      <c r="E61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B62" s="5">
+        <v>42794</v>
+      </c>
+      <c r="C62" s="6">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B63" s="5">
+        <v>42795</v>
+      </c>
+      <c r="C63" s="6">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B64" s="5">
+        <v>42796</v>
+      </c>
+      <c r="C64" s="6">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B65" s="5">
+        <v>42797</v>
+      </c>
+      <c r="C65" s="6">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B66" s="5">
+        <v>42800</v>
+      </c>
+      <c r="C66" s="6">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B67" s="5">
+        <v>42801</v>
+      </c>
+      <c r="C67" s="6">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
+      <c r="B68" s="5"/>
+      <c r="C68" s="6"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
+      <c r="B69" s="5"/>
+      <c r="C69" s="6"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+      <c r="B70" s="5"/>
+      <c r="C70" s="6"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
+      <c r="B71" s="5"/>
+      <c r="C71" s="6"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
+      <c r="B72" s="5"/>
+      <c r="C72" s="6"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
+      <c r="B73" s="5"/>
+      <c r="C73" s="6"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
+      <c r="B74" s="5"/>
+      <c r="C74" s="6"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="6"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="6"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="6"/>
-    </row>
-    <row r="45" spans="1:3" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="B45" s="19"/>
-      <c r="C45" s="20">
-        <f>SUM(C4:C44)</f>
-        <v>133</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B46" s="5"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B47" s="5"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B48" s="5"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="6"/>
+    </row>
+    <row r="76" spans="1:4" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B76" s="19"/>
+      <c r="C76" s="20">
+        <f>SUM(C4:C75)</f>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B77" s="5"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B78" s="5"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B79" s="5"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B80" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4239,7 +4995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
@@ -5213,7 +5969,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5264,7 +6020,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A4:$C44,Zusatz!A2,'Raphael Bolliger'!$C$4:$C$44)</f>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A4:$C75,Zusatz!A2,'Raphael Bolliger'!$C$4:$C$75)</f>
         <v>3</v>
       </c>
       <c r="E2" s="17">
@@ -5282,11 +6038,11 @@
       <c r="H2" s="17"/>
       <c r="I2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42767</v>
+        <v>42801</v>
       </c>
       <c r="J2" s="17">
         <f ca="1">WEEKNUM(I2)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -5301,7 +6057,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$44,Zusatz!A3,'Raphael Bolliger'!$C$4:$C$44)</f>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A3,'Raphael Bolliger'!$C$4:$C$75)</f>
         <v>17</v>
       </c>
       <c r="E3" s="17">
@@ -5332,7 +6088,7 @@
         <v>40</v>
       </c>
       <c r="D4" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$44,Zusatz!A4,'Raphael Bolliger'!$C$4:$C$44)</f>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A4,'Raphael Bolliger'!$C$4:$C$75)</f>
         <v>12</v>
       </c>
       <c r="E4" s="17">
@@ -5363,7 +6119,7 @@
         <v>56</v>
       </c>
       <c r="D5" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$44,Zusatz!A5,'Raphael Bolliger'!$C$4:$C$44)</f>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A5,'Raphael Bolliger'!$C$4:$C$75)</f>
         <v>11</v>
       </c>
       <c r="E5" s="17">
@@ -5394,7 +6150,7 @@
         <v>72</v>
       </c>
       <c r="D6" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$44,Zusatz!A6,'Raphael Bolliger'!$C$4:$C$44)</f>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A6,'Raphael Bolliger'!$C$4:$C$75)</f>
         <v>14</v>
       </c>
       <c r="E6" s="17">
@@ -5425,7 +6181,7 @@
         <v>88</v>
       </c>
       <c r="D7" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$44,Zusatz!A7,'Raphael Bolliger'!$C$4:$C$44)</f>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A7,'Raphael Bolliger'!$C$4:$C$75)</f>
         <v>26</v>
       </c>
       <c r="E7" s="17">
@@ -5456,7 +6212,7 @@
         <v>104</v>
       </c>
       <c r="D8" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$44,Zusatz!A8,'Raphael Bolliger'!$C$4:$C$44)</f>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A8,'Raphael Bolliger'!$C$4:$C$75)</f>
         <v>9</v>
       </c>
       <c r="E8" s="17">
@@ -5487,7 +6243,7 @@
         <v>120</v>
       </c>
       <c r="D9" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$44,Zusatz!A9,'Raphael Bolliger'!$C$4:$C$44)</f>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A9,'Raphael Bolliger'!$C$4:$C$75)</f>
         <v>4</v>
       </c>
       <c r="E9" s="17">
@@ -5518,7 +6274,7 @@
         <v>136</v>
       </c>
       <c r="D10" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$44,Zusatz!A10,'Raphael Bolliger'!$C$4:$C$44)</f>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A10,'Raphael Bolliger'!$C$4:$C$75)</f>
         <v>12</v>
       </c>
       <c r="E10" s="17">
@@ -5549,7 +6305,7 @@
         <v>152</v>
       </c>
       <c r="D11" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$44,Zusatz!A11,'Raphael Bolliger'!$C$4:$C$44)</f>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A11,'Raphael Bolliger'!$C$4:$C$75)</f>
         <v>25</v>
       </c>
       <c r="E11" s="17">
@@ -5580,12 +6336,12 @@
         <v>168</v>
       </c>
       <c r="D12" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$44,Zusatz!A12,'Raphael Bolliger'!$C$4:$C$44)</f>
-        <v>0</v>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A12,'Raphael Bolliger'!$C$4:$C$75)</f>
+        <v>24</v>
       </c>
       <c r="E12" s="17">
         <f ca="1">SUM(D$2:D12)</f>
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="F12" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A12,'Andreas Lüscher'!$C$4:$C$56)</f>
@@ -5611,12 +6367,12 @@
         <v>184</v>
       </c>
       <c r="D13" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$44,Zusatz!A13,'Raphael Bolliger'!$C$4:$C$44)</f>
-        <v>0</v>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A13,'Raphael Bolliger'!$C$4:$C$75)</f>
+        <v>17</v>
       </c>
       <c r="E13" s="17">
         <f ca="1">SUM(D$2:D13)</f>
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="F13" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A13,'Andreas Lüscher'!$C$4:$C$56)</f>
@@ -5642,12 +6398,12 @@
         <v>200</v>
       </c>
       <c r="D14" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$44,Zusatz!A14,'Raphael Bolliger'!$C$4:$C$44)</f>
-        <v>0</v>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A14,'Raphael Bolliger'!$C$4:$C$75)</f>
+        <v>13</v>
       </c>
       <c r="E14" s="17">
         <f ca="1">SUM(D$2:D14)</f>
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="F14" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A14,'Andreas Lüscher'!$C$4:$C$56)</f>
@@ -5673,12 +6429,12 @@
         <v>200</v>
       </c>
       <c r="D15" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$44,Zusatz!A15,'Raphael Bolliger'!$C$4:$C$44)</f>
-        <v>0</v>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A15,'Raphael Bolliger'!$C$4:$C$75)</f>
+        <v>8</v>
       </c>
       <c r="E15" s="17">
         <f ca="1">SUM(D$2:D15)</f>
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="F15" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A15,'Andreas Lüscher'!$C$4:$C$56)</f>
@@ -5704,12 +6460,12 @@
         <v>200</v>
       </c>
       <c r="D16" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$44,Zusatz!A16,'Raphael Bolliger'!$C$4:$C$44)</f>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A16,'Raphael Bolliger'!$C$4:$C$75)</f>
         <v>0</v>
       </c>
       <c r="E16" s="17">
         <f ca="1">SUM(D$2:D16)</f>
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="F16" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A16,'Andreas Lüscher'!$C$4:$C$56)</f>
@@ -5735,12 +6491,12 @@
         <v>216</v>
       </c>
       <c r="D17" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$44,Zusatz!A17,'Raphael Bolliger'!$C$4:$C$44)</f>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A17,'Raphael Bolliger'!$C$4:$C$75)</f>
         <v>0</v>
       </c>
       <c r="E17" s="17">
         <f ca="1">SUM(D$2:D17)</f>
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="F17" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A17,'Andreas Lüscher'!$C$4:$C$56)</f>
@@ -5766,12 +6522,12 @@
         <v>232</v>
       </c>
       <c r="D18" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$44,Zusatz!A18,'Raphael Bolliger'!$C$4:$C$44)</f>
-        <v>0</v>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A18,'Raphael Bolliger'!$C$4:$C$75)</f>
+        <v>1</v>
       </c>
       <c r="E18" s="17">
         <f ca="1">SUM(D$2:D18)</f>
-        <v>133</v>
+        <v>196</v>
       </c>
       <c r="F18" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A18,'Andreas Lüscher'!$C$4:$C$56)</f>
@@ -5797,12 +6553,12 @@
         <v>248</v>
       </c>
       <c r="D19" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$44,Zusatz!A19,'Raphael Bolliger'!$C$4:$C$44)</f>
-        <v>0</v>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A19,'Raphael Bolliger'!$C$4:$C$75)</f>
+        <v>24</v>
       </c>
       <c r="E19" s="17">
         <f ca="1">SUM(D$2:D19)</f>
-        <v>133</v>
+        <v>220</v>
       </c>
       <c r="F19" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A19,'Andreas Lüscher'!$C$4:$C$56)</f>
@@ -5828,12 +6584,12 @@
         <v>264</v>
       </c>
       <c r="D20" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$44,Zusatz!A20,'Raphael Bolliger'!$C$4:$C$44)</f>
-        <v>0</v>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A20,'Raphael Bolliger'!$C$4:$C$75)</f>
+        <v>18</v>
       </c>
       <c r="E20" s="17">
         <f ca="1">SUM(D$2:D20)</f>
-        <v>133</v>
+        <v>238</v>
       </c>
       <c r="F20" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A20,'Andreas Lüscher'!$C$4:$C$56)</f>
@@ -5859,12 +6615,12 @@
         <v>280</v>
       </c>
       <c r="D21" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$44,Zusatz!A21,'Raphael Bolliger'!$C$4:$C$44)</f>
-        <v>0</v>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A21,'Raphael Bolliger'!$C$4:$C$75)</f>
+        <v>19</v>
       </c>
       <c r="E21" s="17">
         <f ca="1">SUM(D$2:D21)</f>
-        <v>133</v>
+        <v>257</v>
       </c>
       <c r="F21" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A21,'Andreas Lüscher'!$C$4:$C$56)</f>
@@ -5890,12 +6646,12 @@
         <v>296</v>
       </c>
       <c r="D22" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$44,Zusatz!A22,'Raphael Bolliger'!$C$4:$C$44)</f>
-        <v>0</v>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A22,'Raphael Bolliger'!$C$4:$C$75)</f>
+        <v>32</v>
       </c>
       <c r="E22" s="17">
         <f ca="1">SUM(D$2:D22)</f>
-        <v>133</v>
+        <v>289</v>
       </c>
       <c r="F22" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A22,'Andreas Lüscher'!$C$4:$C$56)</f>
@@ -5921,12 +6677,12 @@
         <v>312</v>
       </c>
       <c r="D23" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$44,Zusatz!A23,'Raphael Bolliger'!$C$4:$C$44)</f>
-        <v>0</v>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A23,'Raphael Bolliger'!$C$4:$C$75)</f>
+        <v>44</v>
       </c>
       <c r="E23" s="17">
         <f ca="1">SUM(D$2:D23)</f>
-        <v>133</v>
+        <v>333</v>
       </c>
       <c r="F23" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A23,'Andreas Lüscher'!$C$4:$C$56)</f>
@@ -5952,12 +6708,12 @@
         <v>328</v>
       </c>
       <c r="D24" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$44,Zusatz!A24,'Raphael Bolliger'!$C$4:$C$44)</f>
-        <v>0</v>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A24,'Raphael Bolliger'!$C$4:$C$75)</f>
+        <v>53</v>
       </c>
       <c r="E24" s="17">
         <f ca="1">SUM(D$2:D24)</f>
-        <v>133</v>
+        <v>386</v>
       </c>
       <c r="F24" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A24,'Andreas Lüscher'!$C$4:$C$56)</f>
@@ -5983,12 +6739,12 @@
         <v>344</v>
       </c>
       <c r="D25" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$44,Zusatz!A25,'Raphael Bolliger'!$C$4:$C$44)</f>
-        <v>0</v>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A25,'Raphael Bolliger'!$C$4:$C$75)</f>
+        <v>18</v>
       </c>
       <c r="E25" s="17">
         <f ca="1">SUM(D$2:D25)</f>
-        <v>133</v>
+        <v>404</v>
       </c>
       <c r="F25" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A25,'Andreas Lüscher'!$C$4:$C$56)</f>
@@ -6014,12 +6770,12 @@
         <v>360</v>
       </c>
       <c r="D26" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$44,Zusatz!A26,'Raphael Bolliger'!$C$4:$C$44)</f>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A26,'Raphael Bolliger'!$C$4:$C$75)</f>
         <v>0</v>
       </c>
       <c r="E26" s="17">
         <f ca="1">SUM(D$2:D26)</f>
-        <v>133</v>
+        <v>404</v>
       </c>
       <c r="F26" s="17">
         <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A26,'Andreas Lüscher'!$C$4:$C$56)</f>

--- a/doc/journal/Arbeitsjournal.xlsx
+++ b/doc/journal/Arbeitsjournal.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Daten/Spektrometer/portableSpectrometer/doc/journal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Andreas/Projects/Bachelorthesis/portableSpectrometer/doc/journal/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="49560" windowHeight="24720" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19700" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsjournal" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="179">
   <si>
     <t>Arbeitsjournal Übersicht</t>
   </si>
@@ -492,6 +492,81 @@
   </si>
   <si>
     <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>Writer erweitert und neu strukturiert</t>
+  </si>
+  <si>
+    <t>Unit Test mit Daten des Spektrometers erstellt und Writer verbessert</t>
+  </si>
+  <si>
+    <t>Unit Tests</t>
+  </si>
+  <si>
+    <t>Writer</t>
+  </si>
+  <si>
+    <t>Settings Modals verbessert und Radiance View Controller geändert</t>
+  </si>
+  <si>
+    <t>Spektras werden im Parent VC zwischengespeichert. Erst im Finish VC wird geschrieben.</t>
+  </si>
+  <si>
+    <t>UI &amp; Controller</t>
+  </si>
+  <si>
+    <t>RawSettings VC hinzugegfügt</t>
+  </si>
+  <si>
+    <t>Alle 3 Modi werden korrekt geschrieben</t>
+  </si>
+  <si>
+    <t>Refactoring</t>
+  </si>
+  <si>
+    <t>Calculations</t>
+  </si>
+  <si>
+    <t>Neue Calculations Klasse hinzugefügt und Command Manager verbessert</t>
+  </si>
+  <si>
+    <t>Radiance wird korrekt geschrieben inklusive base lamp und fo files</t>
+  </si>
+  <si>
+    <t>BackgroundFileManger</t>
+  </si>
+  <si>
+    <t>Neue BackgroundFileMangaer Klasse hinzugefügt, um Daten bereits während dem Messen zu schreiben.</t>
+  </si>
+  <si>
+    <t>FileSelection</t>
+  </si>
+  <si>
+    <t>Besuchte Pfade speichern und direkt dahinspringen, wenn FIleBrowser geöfnet wird.</t>
+  </si>
+  <si>
+    <t>File Managment</t>
+  </si>
+  <si>
+    <t>Verbessertes FileManagement</t>
+  </si>
+  <si>
+    <t>Instrument Control</t>
+  </si>
+  <si>
+    <t>Instument Control Aktionen hinzugefügt</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Dokumentation erweitert</t>
+  </si>
+  <si>
+    <t>Page Classes hinzugefügt für die einfachere verwaltung der Parameter</t>
+  </si>
+  <si>
+    <t>Verbesserte Calculations, Writes und Anzeige der Messresultate. Grosses refactoring der Messmethoden</t>
   </si>
 </sst>
 </file>
@@ -1138,11 +1213,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-252960432"/>
-        <c:axId val="-123994272"/>
+        <c:axId val="1675858080"/>
+        <c:axId val="1675862112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-252960432"/>
+        <c:axId val="1675858080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,7 +1316,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-123994272"/>
+        <c:crossAx val="1675862112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1249,7 +1324,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-123994272"/>
+        <c:axId val="1675862112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1356,7 +1431,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-252960432"/>
+        <c:crossAx val="1675858080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1877,22 +1952,22 @@
                   <c:v>249.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>249.0</c:v>
+                  <c:v>263.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>249.0</c:v>
+                  <c:v>287.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>249.0</c:v>
+                  <c:v>301.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>249.0</c:v>
+                  <c:v>342.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>249.0</c:v>
+                  <c:v>356.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>249.0</c:v>
+                  <c:v>356.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1913,11 +1988,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-153440592"/>
-        <c:axId val="-253121520"/>
+        <c:axId val="1675876624"/>
+        <c:axId val="1675880016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-153440592"/>
+        <c:axId val="1675876624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2016,7 +2091,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-253121520"/>
+        <c:crossAx val="1675880016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2024,7 +2099,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-253121520"/>
+        <c:axId val="1675880016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2131,7 +2206,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-153440592"/>
+        <c:crossAx val="1675876624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3657,7 +3732,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3722,8 +3797,8 @@
         <v>#N/A</v>
       </c>
       <c r="J5" s="7">
-        <f>'Andreas Lüscher'!C58</f>
-        <v>249</v>
+        <f>'Andreas Lüscher'!C74</f>
+        <v>356</v>
       </c>
       <c r="K5" s="7" t="e">
         <f ca="1">J5-I5</f>
@@ -3745,7 +3820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
@@ -4993,10 +5068,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5723,7 +5798,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
-        <f t="shared" ref="A43:A57" si="4">WEEKNUM(B43)</f>
+        <f t="shared" ref="A43:A73" si="4">WEEKNUM(B43)</f>
         <v>2</v>
       </c>
       <c r="B43" s="5">
@@ -5841,7 +5916,7 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="E49" t="s">
         <v>100</v>
@@ -5903,61 +5978,358 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="6"/>
+        <f>WEEKNUM(B53)</f>
+        <v>6</v>
+      </c>
+      <c r="B53" s="5">
+        <v>42773</v>
+      </c>
+      <c r="C53" s="6">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>157</v>
+      </c>
+      <c r="E53" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="B54" s="5">
+        <v>42775</v>
+      </c>
+      <c r="C54" s="6">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>156</v>
+      </c>
+      <c r="E54" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="B55" s="5">
+        <v>42780</v>
+      </c>
+      <c r="C55" s="6">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>71</v>
+      </c>
+      <c r="E55" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="B56" s="5">
+        <v>42781</v>
+      </c>
+      <c r="C56" s="6">
+        <v>7</v>
+      </c>
+      <c r="D56" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B57" s="5">
+        <v>42782</v>
+      </c>
+      <c r="C57" s="6">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
+        <v>105</v>
+      </c>
+      <c r="E57" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="7">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B58" s="5">
+        <v>42783</v>
+      </c>
+      <c r="C58" s="6">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
+        <v>160</v>
+      </c>
+      <c r="E58" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="7">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B59" s="5">
+        <v>42786</v>
+      </c>
+      <c r="C59" s="6">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>157</v>
+      </c>
+      <c r="E59" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="7">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B60" s="5">
+        <v>42790</v>
+      </c>
+      <c r="C60" s="6">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>163</v>
+      </c>
+      <c r="E60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="7">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B61" s="5">
+        <v>42791</v>
+      </c>
+      <c r="C61" s="6">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>164</v>
+      </c>
+      <c r="E61" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="7">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B62" s="5">
+        <v>42792</v>
+      </c>
+      <c r="C62" s="6">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>157</v>
+      </c>
+      <c r="E62" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="7">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B63" s="5">
+        <v>42794</v>
+      </c>
+      <c r="C63" s="6">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
+        <v>167</v>
+      </c>
+      <c r="E63" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="7">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B64" s="5">
+        <v>42795</v>
+      </c>
+      <c r="C64" s="6">
+        <v>12</v>
+      </c>
+      <c r="D64" t="s">
+        <v>105</v>
+      </c>
+      <c r="E64" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="7">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B65" s="5">
+        <v>42796</v>
+      </c>
+      <c r="C65" s="6">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>169</v>
+      </c>
+      <c r="E65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="7">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B66" s="5">
+        <v>42796</v>
+      </c>
+      <c r="C66" s="6">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>171</v>
+      </c>
+      <c r="E66" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="7">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B67" s="5">
+        <v>42797</v>
+      </c>
+      <c r="C67" s="6">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>173</v>
+      </c>
+      <c r="E67" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="7">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B68" s="5">
+        <v>42800</v>
+      </c>
+      <c r="C68" s="6">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>175</v>
+      </c>
+      <c r="E68" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="7">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B69" s="5">
+        <v>42801</v>
+      </c>
+      <c r="C69" s="6">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>175</v>
+      </c>
+      <c r="E69" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="7">
+        <f t="shared" ref="A70" si="5">WEEKNUM(B70)</f>
         <v>0</v>
       </c>
-      <c r="B57" s="5"/>
-    </row>
-    <row r="58" spans="1:5" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="B58" s="8"/>
-      <c r="C58" s="20">
-        <f>SUM(C4:C56)</f>
-        <v>249</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="3"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="3"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="6"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="6"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="7">
+        <f t="shared" ref="A72" si="6">WEEKNUM(B72)</f>
+        <v>0</v>
+      </c>
+      <c r="B72" s="5"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B73" s="5"/>
+    </row>
+    <row r="74" spans="1:5" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B74" s="8"/>
+      <c r="C74" s="20">
+        <f>SUM(C4:C72)</f>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B75" s="3"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B76" s="3"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B78" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6028,7 +6400,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A2,'Andreas Lüscher'!$C$4:$C$56)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A2,'Andreas Lüscher'!$C$4:$C$72)</f>
         <v>3</v>
       </c>
       <c r="G2" s="17">
@@ -6038,7 +6410,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42801</v>
+        <v>42802</v>
       </c>
       <c r="J2" s="17">
         <f ca="1">WEEKNUM(I2)</f>
@@ -6065,7 +6437,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A3,'Andreas Lüscher'!$C$4:$C$56)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A3,'Andreas Lüscher'!$C$4:$C$72)</f>
         <v>26</v>
       </c>
       <c r="G3" s="17">
@@ -6096,7 +6468,7 @@
         <v>32</v>
       </c>
       <c r="F4" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A4,'Andreas Lüscher'!$C$4:$C$56)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A4,'Andreas Lüscher'!$C$4:$C$72)</f>
         <v>11</v>
       </c>
       <c r="G4" s="17">
@@ -6127,7 +6499,7 @@
         <v>43</v>
       </c>
       <c r="F5" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A5,'Andreas Lüscher'!$C$4:$C$56)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A5,'Andreas Lüscher'!$C$4:$C$72)</f>
         <v>3</v>
       </c>
       <c r="G5" s="17">
@@ -6158,7 +6530,7 @@
         <v>57</v>
       </c>
       <c r="F6" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A6,'Andreas Lüscher'!$C$4:$C$56)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A6,'Andreas Lüscher'!$C$4:$C$72)</f>
         <v>14</v>
       </c>
       <c r="G6" s="17">
@@ -6189,7 +6561,7 @@
         <v>83</v>
       </c>
       <c r="F7" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A7,'Andreas Lüscher'!$C$4:$C$56)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A7,'Andreas Lüscher'!$C$4:$C$72)</f>
         <v>12</v>
       </c>
       <c r="G7" s="17">
@@ -6220,7 +6592,7 @@
         <v>92</v>
       </c>
       <c r="F8" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A8,'Andreas Lüscher'!$C$4:$C$56)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A8,'Andreas Lüscher'!$C$4:$C$72)</f>
         <v>10</v>
       </c>
       <c r="G8" s="17">
@@ -6251,7 +6623,7 @@
         <v>96</v>
       </c>
       <c r="F9" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A9,'Andreas Lüscher'!$C$4:$C$56)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A9,'Andreas Lüscher'!$C$4:$C$72)</f>
         <v>7</v>
       </c>
       <c r="G9" s="17">
@@ -6282,7 +6654,7 @@
         <v>108</v>
       </c>
       <c r="F10" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A10,'Andreas Lüscher'!$C$4:$C$56)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A10,'Andreas Lüscher'!$C$4:$C$72)</f>
         <v>25</v>
       </c>
       <c r="G10" s="17">
@@ -6313,7 +6685,7 @@
         <v>133</v>
       </c>
       <c r="F11" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A11,'Andreas Lüscher'!$C$4:$C$56)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A11,'Andreas Lüscher'!$C$4:$C$72)</f>
         <v>15</v>
       </c>
       <c r="G11" s="17">
@@ -6344,7 +6716,7 @@
         <v>157</v>
       </c>
       <c r="F12" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A12,'Andreas Lüscher'!$C$4:$C$56)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A12,'Andreas Lüscher'!$C$4:$C$72)</f>
         <v>7</v>
       </c>
       <c r="G12" s="17">
@@ -6375,7 +6747,7 @@
         <v>174</v>
       </c>
       <c r="F13" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A13,'Andreas Lüscher'!$C$4:$C$56)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A13,'Andreas Lüscher'!$C$4:$C$72)</f>
         <v>9</v>
       </c>
       <c r="G13" s="17">
@@ -6406,7 +6778,7 @@
         <v>187</v>
       </c>
       <c r="F14" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A14,'Andreas Lüscher'!$C$4:$C$56)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A14,'Andreas Lüscher'!$C$4:$C$72)</f>
         <v>27</v>
       </c>
       <c r="G14" s="17">
@@ -6437,7 +6809,7 @@
         <v>195</v>
       </c>
       <c r="F15" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A15,'Andreas Lüscher'!$C$4:$C$56)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A15,'Andreas Lüscher'!$C$4:$C$72)</f>
         <v>4</v>
       </c>
       <c r="G15" s="17">
@@ -6468,7 +6840,7 @@
         <v>195</v>
       </c>
       <c r="F16" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A16,'Andreas Lüscher'!$C$4:$C$56)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A16,'Andreas Lüscher'!$C$4:$C$72)</f>
         <v>6</v>
       </c>
       <c r="G16" s="17">
@@ -6499,7 +6871,7 @@
         <v>195</v>
       </c>
       <c r="F17" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A17,'Andreas Lüscher'!$C$4:$C$56)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A17,'Andreas Lüscher'!$C$4:$C$72)</f>
         <v>20</v>
       </c>
       <c r="G17" s="17">
@@ -6530,7 +6902,7 @@
         <v>196</v>
       </c>
       <c r="F18" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A18,'Andreas Lüscher'!$C$4:$C$56)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A18,'Andreas Lüscher'!$C$4:$C$72)</f>
         <v>16</v>
       </c>
       <c r="G18" s="17">
@@ -6561,7 +6933,7 @@
         <v>220</v>
       </c>
       <c r="F19" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A19,'Andreas Lüscher'!$C$4:$C$56)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A19,'Andreas Lüscher'!$C$4:$C$72)</f>
         <v>12</v>
       </c>
       <c r="G19" s="17">
@@ -6592,7 +6964,7 @@
         <v>238</v>
       </c>
       <c r="F20" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A20,'Andreas Lüscher'!$C$4:$C$56)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A20,'Andreas Lüscher'!$C$4:$C$72)</f>
         <v>22</v>
       </c>
       <c r="G20" s="17">
@@ -6623,12 +6995,12 @@
         <v>257</v>
       </c>
       <c r="F21" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A21,'Andreas Lüscher'!$C$4:$C$56)</f>
-        <v>0</v>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A21,'Andreas Lüscher'!$C$4:$C$72)</f>
+        <v>14</v>
       </c>
       <c r="G21" s="17">
         <f ca="1">SUM(F$2:F21)</f>
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
@@ -6654,12 +7026,12 @@
         <v>289</v>
       </c>
       <c r="F22" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A22,'Andreas Lüscher'!$C$4:$C$56)</f>
-        <v>0</v>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A22,'Andreas Lüscher'!$C$4:$C$72)</f>
+        <v>24</v>
       </c>
       <c r="G22" s="17">
         <f ca="1">SUM(F$2:F22)</f>
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
@@ -6685,12 +7057,12 @@
         <v>333</v>
       </c>
       <c r="F23" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A23,'Andreas Lüscher'!$C$4:$C$56)</f>
-        <v>0</v>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A23,'Andreas Lüscher'!$C$4:$C$72)</f>
+        <v>14</v>
       </c>
       <c r="G23" s="17">
         <f ca="1">SUM(F$2:F23)</f>
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
@@ -6716,12 +7088,12 @@
         <v>386</v>
       </c>
       <c r="F24" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A24,'Andreas Lüscher'!$C$4:$C$56)</f>
-        <v>0</v>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A24,'Andreas Lüscher'!$C$4:$C$72)</f>
+        <v>41</v>
       </c>
       <c r="G24" s="17">
         <f ca="1">SUM(F$2:F24)</f>
-        <v>249</v>
+        <v>342</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
@@ -6747,12 +7119,12 @@
         <v>404</v>
       </c>
       <c r="F25" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A25,'Andreas Lüscher'!$C$4:$C$56)</f>
-        <v>0</v>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A25,'Andreas Lüscher'!$C$4:$C$72)</f>
+        <v>14</v>
       </c>
       <c r="G25" s="17">
         <f ca="1">SUM(F$2:F25)</f>
-        <v>249</v>
+        <v>356</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
@@ -6778,12 +7150,12 @@
         <v>404</v>
       </c>
       <c r="F26" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$56,A26,'Andreas Lüscher'!$C$4:$C$56)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A26,'Andreas Lüscher'!$C$4:$C$72)</f>
         <v>0</v>
       </c>
       <c r="G26" s="17">
         <f ca="1">SUM(F$2:F26)</f>
-        <v>249</v>
+        <v>356</v>
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>

--- a/doc/journal/Arbeitsjournal.xlsx
+++ b/doc/journal/Arbeitsjournal.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19700" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsjournal" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="187">
   <si>
     <t>Arbeitsjournal Übersicht</t>
   </si>
@@ -567,6 +567,30 @@
   </si>
   <si>
     <t>Verbesserte Calculations, Writes und Anzeige der Messresultate. Grosses refactoring der Messmethoden</t>
+  </si>
+  <si>
+    <t>Testprotkoll erstellt</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Error Handling</t>
+  </si>
+  <si>
+    <t>Error Handling Versuch</t>
+  </si>
+  <si>
+    <t>Final Version</t>
+  </si>
+  <si>
+    <t>Verbesserungen aus Feedback umgesetzt</t>
+  </si>
+  <si>
+    <t>Calculation Service</t>
+  </si>
+  <si>
+    <t>Verbesserte Kapselung des Calculation services</t>
   </si>
 </sst>
 </file>
@@ -1213,11 +1237,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1675858080"/>
-        <c:axId val="1675862112"/>
+        <c:axId val="1942062240"/>
+        <c:axId val="1909278864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1675858080"/>
+        <c:axId val="1942062240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1316,7 +1340,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1675862112"/>
+        <c:crossAx val="1909278864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1324,7 +1348,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1675862112"/>
+        <c:axId val="1909278864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1431,7 +1455,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1675858080"/>
+        <c:crossAx val="1942062240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1964,10 +1988,10 @@
                   <c:v>342.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>356.0</c:v>
+                  <c:v>361.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>356.0</c:v>
+                  <c:v>369.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1988,11 +2012,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1675876624"/>
-        <c:axId val="1675880016"/>
+        <c:axId val="2010228608"/>
+        <c:axId val="2010232640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1675876624"/>
+        <c:axId val="2010228608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2091,7 +2115,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1675880016"/>
+        <c:crossAx val="2010232640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2099,7 +2123,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1675880016"/>
+        <c:axId val="2010232640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2206,7 +2230,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1675876624"/>
+        <c:crossAx val="2010228608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3732,7 +3756,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3797,8 +3821,8 @@
         <v>#N/A</v>
       </c>
       <c r="J5" s="7">
-        <f>'Andreas Lüscher'!C74</f>
-        <v>356</v>
+        <f>'Andreas Lüscher'!C85</f>
+        <v>385</v>
       </c>
       <c r="K5" s="7" t="e">
         <f ca="1">J5-I5</f>
@@ -5068,10 +5092,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5798,7 +5822,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
-        <f t="shared" ref="A43:A73" si="4">WEEKNUM(B43)</f>
+        <f t="shared" ref="A43:A84" si="4">WEEKNUM(B43)</f>
         <v>2</v>
       </c>
       <c r="B43" s="5">
@@ -6285,51 +6309,199 @@
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <f t="shared" ref="A70" si="5">WEEKNUM(B70)</f>
-        <v>0</v>
-      </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="B70" s="5">
+        <v>42802</v>
+      </c>
+      <c r="C70" s="6">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>180</v>
+      </c>
+      <c r="E70" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="B71" s="5">
+        <v>42807</v>
+      </c>
+      <c r="C71" s="6">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s">
+        <v>181</v>
+      </c>
+      <c r="E71" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <f t="shared" ref="A72" si="6">WEEKNUM(B72)</f>
-        <v>0</v>
-      </c>
-      <c r="B72" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="B72" s="5">
+        <v>42808</v>
+      </c>
+      <c r="C72" s="6">
+        <v>4</v>
+      </c>
+      <c r="D72" t="s">
+        <v>185</v>
+      </c>
+      <c r="E72" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
+        <f>WEEKNUM(B73)</f>
+        <v>12</v>
+      </c>
+      <c r="B73" s="5">
+        <v>42814</v>
+      </c>
+      <c r="C73" s="6">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>183</v>
+      </c>
+      <c r="E73" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="7">
+        <f t="shared" ref="A74" si="7">WEEKNUM(B74)</f>
+        <v>12</v>
+      </c>
+      <c r="B74" s="5">
+        <v>42815</v>
+      </c>
+      <c r="C74" s="6">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s">
+        <v>183</v>
+      </c>
+      <c r="E74" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="7">
+        <f>WEEKNUM(B75)</f>
+        <v>12</v>
+      </c>
+      <c r="B75" s="5">
+        <v>42816</v>
+      </c>
+      <c r="C75" s="6">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
+        <v>175</v>
+      </c>
+      <c r="E75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="7">
+        <f t="shared" ref="A76" si="8">WEEKNUM(B76)</f>
+        <v>0</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="6"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="B73" s="5"/>
-    </row>
-    <row r="74" spans="1:5" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="B74" s="8"/>
-      <c r="C74" s="20">
-        <f>SUM(C4:C72)</f>
-        <v>356</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B75" s="3"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B76" s="3"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B77" s="3"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="6"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B78" s="3"/>
+      <c r="A78" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B78" s="5"/>
+      <c r="C78" s="6"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="6"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B80" s="5"/>
+      <c r="C80" s="6"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B81" s="5"/>
+      <c r="C81" s="6"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="C82" s="6"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B83" s="5"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B84" s="5"/>
+    </row>
+    <row r="85" spans="1:3" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B85" s="8"/>
+      <c r="C85" s="20">
+        <f>SUM(C4:C83)</f>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B86" s="3"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B87" s="3"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B88" s="3"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B89" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6400,7 +6572,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A2,'Andreas Lüscher'!$C$4:$C$72)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A2,'Andreas Lüscher'!$C$4:$C$83)</f>
         <v>3</v>
       </c>
       <c r="G2" s="17">
@@ -6410,11 +6582,11 @@
       <c r="H2" s="17"/>
       <c r="I2" s="16">
         <f ca="1">TODAY()</f>
-        <v>42802</v>
+        <v>42816</v>
       </c>
       <c r="J2" s="17">
         <f ca="1">WEEKNUM(I2)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -6437,7 +6609,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A3,'Andreas Lüscher'!$C$4:$C$72)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A3,'Andreas Lüscher'!$C$4:$C$83)</f>
         <v>26</v>
       </c>
       <c r="G3" s="17">
@@ -6468,7 +6640,7 @@
         <v>32</v>
       </c>
       <c r="F4" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A4,'Andreas Lüscher'!$C$4:$C$72)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A4,'Andreas Lüscher'!$C$4:$C$83)</f>
         <v>11</v>
       </c>
       <c r="G4" s="17">
@@ -6499,7 +6671,7 @@
         <v>43</v>
       </c>
       <c r="F5" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A5,'Andreas Lüscher'!$C$4:$C$72)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A5,'Andreas Lüscher'!$C$4:$C$83)</f>
         <v>3</v>
       </c>
       <c r="G5" s="17">
@@ -6530,7 +6702,7 @@
         <v>57</v>
       </c>
       <c r="F6" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A6,'Andreas Lüscher'!$C$4:$C$72)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A6,'Andreas Lüscher'!$C$4:$C$83)</f>
         <v>14</v>
       </c>
       <c r="G6" s="17">
@@ -6561,7 +6733,7 @@
         <v>83</v>
       </c>
       <c r="F7" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A7,'Andreas Lüscher'!$C$4:$C$72)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A7,'Andreas Lüscher'!$C$4:$C$83)</f>
         <v>12</v>
       </c>
       <c r="G7" s="17">
@@ -6592,7 +6764,7 @@
         <v>92</v>
       </c>
       <c r="F8" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A8,'Andreas Lüscher'!$C$4:$C$72)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A8,'Andreas Lüscher'!$C$4:$C$83)</f>
         <v>10</v>
       </c>
       <c r="G8" s="17">
@@ -6623,7 +6795,7 @@
         <v>96</v>
       </c>
       <c r="F9" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A9,'Andreas Lüscher'!$C$4:$C$72)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A9,'Andreas Lüscher'!$C$4:$C$83)</f>
         <v>7</v>
       </c>
       <c r="G9" s="17">
@@ -6654,7 +6826,7 @@
         <v>108</v>
       </c>
       <c r="F10" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A10,'Andreas Lüscher'!$C$4:$C$72)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A10,'Andreas Lüscher'!$C$4:$C$83)</f>
         <v>25</v>
       </c>
       <c r="G10" s="17">
@@ -6685,7 +6857,7 @@
         <v>133</v>
       </c>
       <c r="F11" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A11,'Andreas Lüscher'!$C$4:$C$72)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A11,'Andreas Lüscher'!$C$4:$C$83)</f>
         <v>15</v>
       </c>
       <c r="G11" s="17">
@@ -6716,7 +6888,7 @@
         <v>157</v>
       </c>
       <c r="F12" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A12,'Andreas Lüscher'!$C$4:$C$72)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A12,'Andreas Lüscher'!$C$4:$C$83)</f>
         <v>7</v>
       </c>
       <c r="G12" s="17">
@@ -6747,7 +6919,7 @@
         <v>174</v>
       </c>
       <c r="F13" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A13,'Andreas Lüscher'!$C$4:$C$72)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A13,'Andreas Lüscher'!$C$4:$C$83)</f>
         <v>9</v>
       </c>
       <c r="G13" s="17">
@@ -6778,7 +6950,7 @@
         <v>187</v>
       </c>
       <c r="F14" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A14,'Andreas Lüscher'!$C$4:$C$72)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A14,'Andreas Lüscher'!$C$4:$C$83)</f>
         <v>27</v>
       </c>
       <c r="G14" s="17">
@@ -6809,7 +6981,7 @@
         <v>195</v>
       </c>
       <c r="F15" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A15,'Andreas Lüscher'!$C$4:$C$72)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A15,'Andreas Lüscher'!$C$4:$C$83)</f>
         <v>4</v>
       </c>
       <c r="G15" s="17">
@@ -6840,7 +7012,7 @@
         <v>195</v>
       </c>
       <c r="F16" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A16,'Andreas Lüscher'!$C$4:$C$72)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A16,'Andreas Lüscher'!$C$4:$C$83)</f>
         <v>6</v>
       </c>
       <c r="G16" s="17">
@@ -6871,7 +7043,7 @@
         <v>195</v>
       </c>
       <c r="F17" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A17,'Andreas Lüscher'!$C$4:$C$72)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A17,'Andreas Lüscher'!$C$4:$C$83)</f>
         <v>20</v>
       </c>
       <c r="G17" s="17">
@@ -6902,7 +7074,7 @@
         <v>196</v>
       </c>
       <c r="F18" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A18,'Andreas Lüscher'!$C$4:$C$72)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A18,'Andreas Lüscher'!$C$4:$C$83)</f>
         <v>16</v>
       </c>
       <c r="G18" s="17">
@@ -6933,7 +7105,7 @@
         <v>220</v>
       </c>
       <c r="F19" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A19,'Andreas Lüscher'!$C$4:$C$72)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A19,'Andreas Lüscher'!$C$4:$C$83)</f>
         <v>12</v>
       </c>
       <c r="G19" s="17">
@@ -6964,7 +7136,7 @@
         <v>238</v>
       </c>
       <c r="F20" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A20,'Andreas Lüscher'!$C$4:$C$72)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A20,'Andreas Lüscher'!$C$4:$C$83)</f>
         <v>22</v>
       </c>
       <c r="G20" s="17">
@@ -6995,7 +7167,7 @@
         <v>257</v>
       </c>
       <c r="F21" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A21,'Andreas Lüscher'!$C$4:$C$72)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A21,'Andreas Lüscher'!$C$4:$C$83)</f>
         <v>14</v>
       </c>
       <c r="G21" s="17">
@@ -7026,7 +7198,7 @@
         <v>289</v>
       </c>
       <c r="F22" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A22,'Andreas Lüscher'!$C$4:$C$72)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A22,'Andreas Lüscher'!$C$4:$C$83)</f>
         <v>24</v>
       </c>
       <c r="G22" s="17">
@@ -7057,7 +7229,7 @@
         <v>333</v>
       </c>
       <c r="F23" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A23,'Andreas Lüscher'!$C$4:$C$72)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A23,'Andreas Lüscher'!$C$4:$C$83)</f>
         <v>14</v>
       </c>
       <c r="G23" s="17">
@@ -7088,7 +7260,7 @@
         <v>386</v>
       </c>
       <c r="F24" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A24,'Andreas Lüscher'!$C$4:$C$72)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A24,'Andreas Lüscher'!$C$4:$C$83)</f>
         <v>41</v>
       </c>
       <c r="G24" s="17">
@@ -7119,12 +7291,12 @@
         <v>404</v>
       </c>
       <c r="F25" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A25,'Andreas Lüscher'!$C$4:$C$72)</f>
-        <v>14</v>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A25,'Andreas Lüscher'!$C$4:$C$83)</f>
+        <v>19</v>
       </c>
       <c r="G25" s="17">
         <f ca="1">SUM(F$2:F25)</f>
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
@@ -7150,12 +7322,12 @@
         <v>404</v>
       </c>
       <c r="F26" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$72,A26,'Andreas Lüscher'!$C$4:$C$72)</f>
-        <v>0</v>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A26,'Andreas Lüscher'!$C$4:$C$83)</f>
+        <v>8</v>
       </c>
       <c r="G26" s="17">
         <f ca="1">SUM(F$2:F26)</f>
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>

--- a/doc/journal/Arbeitsjournal.xlsx
+++ b/doc/journal/Arbeitsjournal.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Andreas/Projects/Bachelorthesis/portableSpectrometer/doc/journal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Daten/Spektrometer/portableSpectrometer/doc/journal/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25800" windowHeight="19520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsjournal" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="190">
   <si>
     <t>Arbeitsjournal Übersicht</t>
   </si>
@@ -591,6 +591,15 @@
   </si>
   <si>
     <t>Verbesserte Kapselung des Calculation services</t>
+  </si>
+  <si>
+    <t>Measurement und Dokumentation</t>
+  </si>
+  <si>
+    <t>Errorhandling</t>
+  </si>
+  <si>
+    <t>Dokumentation und Bugfixes</t>
   </si>
 </sst>
 </file>
@@ -690,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -742,6 +751,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -864,7 +908,7 @@
             <c:numRef>
               <c:f>Zusatz!$A$2:$A$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>39.0</c:v>
@@ -948,7 +992,7 @@
             <c:numRef>
               <c:f>Zusatz!$C$2:$C$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>8.0</c:v>
@@ -1057,7 +1101,7 @@
             <c:numRef>
               <c:f>Zusatz!$A$2:$A$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>39.0</c:v>
@@ -1150,73 +1194,73 @@
                   <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.0</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.0</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.0</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83.0</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92.0</c:v>
+                  <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96.0</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>108.0</c:v>
+                  <c:v>98.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>133.0</c:v>
+                  <c:v>118.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>157.0</c:v>
+                  <c:v>142.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>174.0</c:v>
+                  <c:v>159.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>187.0</c:v>
+                  <c:v>172.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>195.0</c:v>
+                  <c:v>180.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>195.0</c:v>
+                  <c:v>180.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>195.0</c:v>
+                  <c:v>180.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>196.0</c:v>
+                  <c:v>181.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>220.0</c:v>
+                  <c:v>203.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>238.0</c:v>
+                  <c:v>216.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>257.0</c:v>
+                  <c:v>232.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>289.0</c:v>
+                  <c:v>260.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>333.0</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>386.0</c:v>
+                  <c:v>346.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>404.0</c:v>
+                  <c:v>372.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>404.0</c:v>
+                  <c:v>381.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1237,11 +1281,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1942062240"/>
-        <c:axId val="1909278864"/>
+        <c:axId val="872882896"/>
+        <c:axId val="873196336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1942062240"/>
+        <c:axId val="872882896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1303,7 +1347,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1340,7 +1384,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1909278864"/>
+        <c:crossAx val="873196336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1348,7 +1392,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1909278864"/>
+        <c:axId val="873196336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1455,7 +1499,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1942062240"/>
+        <c:crossAx val="872882896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1639,7 +1683,7 @@
             <c:numRef>
               <c:f>Zusatz!$A$2:$A$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>39.0</c:v>
@@ -1723,7 +1767,7 @@
             <c:numRef>
               <c:f>Zusatz!$C$2:$C$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>8.0</c:v>
@@ -1832,7 +1876,7 @@
             <c:numRef>
               <c:f>Zusatz!$A$2:$A$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>39.0</c:v>
@@ -2012,11 +2056,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2010228608"/>
-        <c:axId val="2010232640"/>
+        <c:axId val="406890304"/>
+        <c:axId val="406893696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2010228608"/>
+        <c:axId val="406890304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2078,7 +2122,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2115,7 +2159,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2010232640"/>
+        <c:crossAx val="406893696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2123,7 +2167,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2010232640"/>
+        <c:axId val="406893696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2230,7 +2274,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2010228608"/>
+        <c:crossAx val="406890304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3755,8 +3799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3805,23 +3849,23 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="e">
-        <f ca="1">VLOOKUP(Zusatz!J2,Zusatz!A2:C26,3)</f>
+        <f ca="1">VLOOKUP(Zusatz!J2,Zusatz!A2:C27,3)</f>
         <v>#N/A</v>
       </c>
       <c r="B5" s="7">
-        <f>'Raphael Bolliger'!C76</f>
-        <v>404</v>
+        <f>'Raphael Bolliger'!C73</f>
+        <v>391</v>
       </c>
       <c r="C5" s="7" t="e">
         <f ca="1">B5-A5</f>
         <v>#N/A</v>
       </c>
       <c r="I5" s="7" t="e">
-        <f ca="1">VLOOKUP(Zusatz!J2,Zusatz!A2:C26,3)</f>
+        <f ca="1">VLOOKUP(Zusatz!J2,Zusatz!A2:C27,3)</f>
         <v>#N/A</v>
       </c>
       <c r="J5" s="7">
-        <f>'Andreas Lüscher'!C85</f>
+        <f>'Andreas Lüscher'!C76</f>
         <v>385</v>
       </c>
       <c r="K5" s="7" t="e">
@@ -3842,10 +3886,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3856,14 +3900,14 @@
     <col min="5" max="5" width="50.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -3880,7 +3924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <f>WEEKNUM(B4)</f>
         <v>39</v>
@@ -3898,9 +3942,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
-        <f t="shared" ref="A5:A75" si="0">WEEKNUM(B5)</f>
+        <f t="shared" ref="A5:A72" si="0">WEEKNUM(B5)</f>
         <v>40</v>
       </c>
       <c r="B5" s="5">
@@ -3916,7 +3960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3934,7 +3978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3949,7 +3993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3967,7 +4011,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3976,7 +4020,7 @@
         <v>42649</v>
       </c>
       <c r="C9" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -3985,7 +4029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4003,7 +4047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4018,7 +4062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4027,7 +4071,7 @@
         <v>42657</v>
       </c>
       <c r="C12" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -4036,7 +4080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4045,7 +4089,7 @@
         <v>42663</v>
       </c>
       <c r="C13" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -4054,25 +4098,29 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+    <row r="14" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="23">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="24">
         <v>42664</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="25">
         <v>6</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="26" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="28">
+        <f>SUM(C4:C14)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -4090,7 +4138,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -4108,7 +4156,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -4117,7 +4165,7 @@
         <v>42670</v>
       </c>
       <c r="C17" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
         <v>46</v>
@@ -4126,7 +4174,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -4144,7 +4192,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -4162,7 +4210,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -4180,7 +4228,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -4198,7 +4246,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -4216,7 +4264,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -4225,7 +4273,7 @@
         <v>42689</v>
       </c>
       <c r="C23" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
@@ -4234,7 +4282,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -4252,7 +4300,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -4270,7 +4318,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4288,7 +4336,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4297,7 +4345,7 @@
         <v>42696</v>
       </c>
       <c r="C27" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
         <v>66</v>
@@ -4306,7 +4354,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4315,7 +4363,7 @@
         <v>42697</v>
       </c>
       <c r="C28" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
         <v>68</v>
@@ -4324,7 +4372,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4342,7 +4390,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -4360,25 +4408,29 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+    <row r="31" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="23">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="24">
         <v>42703</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="25">
         <v>4</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="26" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" s="27">
+        <f>SUM(C15:C31)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -4396,7 +4448,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -4414,7 +4466,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -4432,7 +4484,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -4450,7 +4502,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -4468,7 +4520,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -4486,7 +4538,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -4504,7 +4556,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -4522,25 +4574,29 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
+    <row r="40" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="23">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="24">
         <v>42722</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="25">
         <v>8</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="26" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" s="28">
+        <f>SUM(C32:C40)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4555,7 +4611,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4573,7 +4629,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4582,7 +4638,7 @@
         <v>42760</v>
       </c>
       <c r="C43" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
         <v>125</v>
@@ -4591,25 +4647,29 @@
         <v>126</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
+    <row r="44" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="24">
         <v>42761</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="25">
         <v>6</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="26" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" s="28">
+        <f>SUM(C41:C44)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4618,7 +4678,7 @@
         <v>42768</v>
       </c>
       <c r="C45" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
         <v>129</v>
@@ -4627,7 +4687,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4636,7 +4696,7 @@
         <v>42770</v>
       </c>
       <c r="C46" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
         <v>131</v>
@@ -4645,7 +4705,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4663,7 +4723,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4678,7 +4738,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4687,7 +4747,7 @@
         <v>42775</v>
       </c>
       <c r="C49" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
         <v>110</v>
@@ -4696,7 +4756,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4714,7 +4774,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4732,7 +4792,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4741,7 +4801,7 @@
         <v>42782</v>
       </c>
       <c r="C52" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s">
         <v>71</v>
@@ -4750,7 +4810,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4759,7 +4819,7 @@
         <v>42783</v>
       </c>
       <c r="C53" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
         <v>71</v>
@@ -4768,7 +4828,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4786,7 +4846,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4804,7 +4864,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4813,7 +4873,7 @@
         <v>42787</v>
       </c>
       <c r="C56" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
         <v>131</v>
@@ -4822,7 +4882,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4831,7 +4891,7 @@
         <v>42788</v>
       </c>
       <c r="C57" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
         <v>71</v>
@@ -4840,7 +4900,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4858,7 +4918,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4876,7 +4936,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4891,7 +4951,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4909,25 +4969,29 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="7">
+    <row r="62" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="23">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="24">
         <v>42794</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="25">
         <v>10</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="26" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" s="28">
+        <f>SUM(C45:C62)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4936,13 +5000,13 @@
         <v>42795</v>
       </c>
       <c r="C63" s="6">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D63" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4957,7 +5021,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4972,7 +5036,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4987,7 +5051,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5002,88 +5066,103 @@
         <v>153</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="6"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="B68" s="5">
+        <v>42802</v>
+      </c>
+      <c r="C68" s="6">
+        <v>3</v>
+      </c>
+      <c r="D68" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="6"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="B69" s="5">
+        <v>42804</v>
+      </c>
+      <c r="C69" s="6">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="6"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B70" s="5">
+        <v>42806</v>
+      </c>
+      <c r="C70" s="6">
+        <v>4</v>
+      </c>
+      <c r="D70" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="6"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B71" s="5">
+        <v>42810</v>
+      </c>
+      <c r="C71" s="6">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="6"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="6"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B72" s="5">
+        <v>42816</v>
+      </c>
+      <c r="C72" s="6">
+        <v>10</v>
+      </c>
+      <c r="D72" t="s">
+        <v>189</v>
+      </c>
+      <c r="F72" s="21">
+        <f>SUM(C63:C72)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B73" s="19"/>
+      <c r="C73" s="20">
+        <f>SUM(C4:C72)</f>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B74" s="5"/>
-      <c r="C74" s="6"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B75" s="5"/>
-      <c r="C75" s="6"/>
-    </row>
-    <row r="76" spans="1:4" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="B76" s="19"/>
-      <c r="C76" s="20">
-        <f>SUM(C4:C75)</f>
-        <v>404</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B76" s="5"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B77" s="5"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B78" s="5"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B79" s="5"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B80" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5092,27 +5171,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="13" style="7" customWidth="1"/>
-    <col min="4" max="4" width="34.1640625" customWidth="1"/>
-    <col min="5" max="5" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="11" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="18"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -5129,7 +5208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <f>WEEKNUM(B4)</f>
         <v>39</v>
@@ -5147,7 +5226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <f t="shared" ref="A5:A7" si="0">WEEKNUM(B5)</f>
         <v>40</v>
@@ -5165,7 +5244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5183,7 +5262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5198,7 +5277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <f>WEEKNUM(B8)</f>
         <v>40</v>
@@ -5216,7 +5295,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <f>WEEKNUM(B9)</f>
         <v>41</v>
@@ -5234,7 +5313,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <f>WEEKNUM(B10)</f>
         <v>41</v>
@@ -5252,7 +5331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <f>WEEKNUM(B11)</f>
         <v>42</v>
@@ -5267,7 +5346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <f t="shared" ref="A12" si="1">WEEKNUM(B12)</f>
         <v>40</v>
@@ -5285,7 +5364,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <f>WEEKNUM(B13)</f>
         <v>43</v>
@@ -5303,25 +5382,29 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+    <row r="14" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="23">
         <f>WEEKNUM(B14)</f>
         <v>43</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="24">
         <v>42664</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="25">
         <v>6</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="26" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="28">
+        <f>SUM(C4:C14)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <f>WEEKNUM(B15)</f>
         <v>44</v>
@@ -5339,7 +5422,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <f t="shared" ref="A16:A47" si="2">WEEKNUM(B16)</f>
         <v>44</v>
@@ -5357,7 +5440,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>44</v>
       </c>
@@ -5374,7 +5457,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>45</v>
       </c>
@@ -5391,7 +5474,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -5409,7 +5492,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -5427,7 +5510,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -5442,7 +5525,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -5460,7 +5543,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -5478,7 +5561,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -5496,7 +5579,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -5514,7 +5597,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -5532,7 +5615,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -5550,7 +5633,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -5568,7 +5651,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -5586,25 +5669,29 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
+    <row r="30" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="23">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="24">
         <v>42704</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="25">
         <v>2</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="26" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" s="28">
+        <f>SUM(C15:C30)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -5622,7 +5709,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -5640,7 +5727,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -5658,7 +5745,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -5676,7 +5763,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -5694,7 +5781,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -5712,7 +5799,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -5730,7 +5817,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <f t="shared" ref="A38" si="3">WEEKNUM(B38)</f>
         <v>51</v>
@@ -5748,25 +5835,29 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
+    <row r="39" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="23">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="24">
         <v>42724</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="25">
         <v>4</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="26" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" s="28">
+        <f>SUM(C31:C39)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5784,7 +5875,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -5802,7 +5893,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <f>WEEKNUM(B42)</f>
         <v>2</v>
@@ -5820,9 +5911,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
-        <f t="shared" ref="A43:A84" si="4">WEEKNUM(B43)</f>
+        <f t="shared" ref="A43:A71" si="4">WEEKNUM(B43)</f>
         <v>2</v>
       </c>
       <c r="B43" s="5">
@@ -5838,7 +5929,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -5856,7 +5947,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -5874,7 +5965,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -5892,7 +5983,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -5910,7 +6001,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -5928,25 +6019,29 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
+    <row r="49" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="23">
         <f>WEEKNUM(B49)</f>
         <v>4</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="24">
         <v>42760</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="25">
         <v>3</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="26" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" s="28">
+        <f>SUM(C40:C49)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -5964,7 +6059,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -5982,7 +6077,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -6000,7 +6095,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <f>WEEKNUM(B53)</f>
         <v>6</v>
@@ -6018,7 +6113,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -6036,7 +6131,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -6054,7 +6149,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -6072,7 +6167,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -6090,7 +6185,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -6108,7 +6203,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -6126,7 +6221,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -6144,7 +6239,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -6162,7 +6257,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -6180,25 +6275,29 @@
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="7">
+    <row r="63" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="23">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="24">
         <v>42794</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="25">
         <v>9</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="26" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" s="28">
+        <f>SUM(C50:C63)</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -6216,7 +6315,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -6234,7 +6333,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -6252,7 +6351,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -6270,7 +6369,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -6288,7 +6387,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -6306,7 +6405,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <f t="shared" ref="A70" si="5">WEEKNUM(B70)</f>
         <v>10</v>
@@ -6324,7 +6423,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -6342,7 +6441,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <f t="shared" ref="A72" si="6">WEEKNUM(B72)</f>
         <v>11</v>
@@ -6360,7 +6459,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
         <f>WEEKNUM(B73)</f>
         <v>12</v>
@@ -6378,7 +6477,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <f t="shared" ref="A74" si="7">WEEKNUM(B74)</f>
         <v>12</v>
@@ -6396,112 +6495,46 @@
         <v>184</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="7">
+    <row r="75" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="23">
         <f>WEEKNUM(B75)</f>
         <v>12</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75" s="24">
         <v>42816</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="25">
         <v>4</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="26" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="7">
-        <f t="shared" ref="A76" si="8">WEEKNUM(B76)</f>
-        <v>0</v>
-      </c>
-      <c r="B76" s="5"/>
-      <c r="C76" s="6"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="6"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="B78" s="5"/>
-      <c r="C78" s="6"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="6"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="B80" s="5"/>
-      <c r="C80" s="6"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="B81" s="5"/>
-      <c r="C81" s="6"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="B82" s="5"/>
-      <c r="C82" s="6"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="B83" s="5"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="B84" s="5"/>
-    </row>
-    <row r="85" spans="1:3" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="B85" s="8"/>
-      <c r="C85" s="20">
-        <f>SUM(C4:C83)</f>
+      <c r="F75" s="28">
+        <f>SUM(C64:C75)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B76" s="8"/>
+      <c r="C76" s="20">
+        <f>SUM(C4:C75)</f>
         <v>385</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B86" s="3"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B87" s="3"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B88" s="3"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B89" s="3"/>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B77" s="3"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B78" s="3"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B79" s="3"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B80" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6510,14 +6543,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="A2" sqref="A2:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="10.83203125" style="22"/>
     <col min="4" max="4" width="11.83203125" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -6529,7 +6563,7 @@
       <c r="B1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="30" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -6553,18 +6587,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="34">
         <v>39</v>
       </c>
       <c r="B2" s="14">
         <v>8</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="31">
         <f>SUM(B$2:B2)</f>
         <v>8</v>
       </c>
       <c r="D2" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A4:$C75,Zusatz!A2,'Raphael Bolliger'!$C$4:$C$75)</f>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A4:$C72,Zusatz!A2,'Raphael Bolliger'!$C$4:$C$72)</f>
         <v>3</v>
       </c>
       <c r="E2" s="17">
@@ -6572,7 +6606,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A2,'Andreas Lüscher'!$C$4:$C$83)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$75,A2,'Andreas Lüscher'!$C$4:$C$75)</f>
         <v>3</v>
       </c>
       <c r="G2" s="17">
@@ -6584,24 +6618,24 @@
         <f ca="1">TODAY()</f>
         <v>42816</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="33">
         <f ca="1">WEEKNUM(I2)</f>
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="34">
         <v>40</v>
       </c>
       <c r="B3" s="14">
         <v>16</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="31">
         <f>SUM(B$2:B3)</f>
         <v>24</v>
       </c>
       <c r="D3" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A3,'Raphael Bolliger'!$C$4:$C$75)</f>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$72,Zusatz!A3,'Raphael Bolliger'!$C$4:$C$72)</f>
         <v>17</v>
       </c>
       <c r="E3" s="17">
@@ -6609,7 +6643,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A3,'Andreas Lüscher'!$C$4:$C$83)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$75,A3,'Andreas Lüscher'!$C$4:$C$75)</f>
         <v>26</v>
       </c>
       <c r="G3" s="17">
@@ -6621,26 +6655,26 @@
       <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="34">
         <v>41</v>
       </c>
       <c r="B4" s="14">
         <v>16</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="31">
         <f>SUM(B$2:B4)</f>
         <v>40</v>
       </c>
       <c r="D4" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A4,'Raphael Bolliger'!$C$4:$C$75)</f>
-        <v>12</v>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$72,Zusatz!A4,'Raphael Bolliger'!$C$4:$C$72)</f>
+        <v>10</v>
       </c>
       <c r="E4" s="17">
         <f ca="1">SUM(D$2:D4)</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A4,'Andreas Lüscher'!$C$4:$C$83)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$75,A4,'Andreas Lüscher'!$C$4:$C$75)</f>
         <v>11</v>
       </c>
       <c r="G4" s="17">
@@ -6652,26 +6686,26 @@
       <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="34">
         <v>42</v>
       </c>
       <c r="B5" s="14">
         <v>16</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="31">
         <f>SUM(B$2:B5)</f>
         <v>56</v>
       </c>
       <c r="D5" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A5,'Raphael Bolliger'!$C$4:$C$75)</f>
-        <v>11</v>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$72,Zusatz!A5,'Raphael Bolliger'!$C$4:$C$72)</f>
+        <v>9</v>
       </c>
       <c r="E5" s="17">
         <f ca="1">SUM(D$2:D5)</f>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F5" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A5,'Andreas Lüscher'!$C$4:$C$83)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$75,A5,'Andreas Lüscher'!$C$4:$C$75)</f>
         <v>3</v>
       </c>
       <c r="G5" s="17">
@@ -6683,26 +6717,26 @@
       <c r="J5" s="17"/>
     </row>
     <row r="6" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="34">
         <v>43</v>
       </c>
       <c r="B6" s="14">
         <v>16</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="31">
         <f>SUM(B$2:B6)</f>
         <v>72</v>
       </c>
       <c r="D6" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A6,'Raphael Bolliger'!$C$4:$C$75)</f>
-        <v>14</v>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$72,Zusatz!A6,'Raphael Bolliger'!$C$4:$C$72)</f>
+        <v>12</v>
       </c>
       <c r="E6" s="17">
         <f ca="1">SUM(D$2:D6)</f>
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F6" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A6,'Andreas Lüscher'!$C$4:$C$83)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$75,A6,'Andreas Lüscher'!$C$4:$C$75)</f>
         <v>14</v>
       </c>
       <c r="G6" s="17">
@@ -6714,26 +6748,26 @@
       <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="34">
         <v>44</v>
       </c>
       <c r="B7" s="14">
         <v>16</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="31">
         <f>SUM(B$2:B7)</f>
         <v>88</v>
       </c>
       <c r="D7" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A7,'Raphael Bolliger'!$C$4:$C$75)</f>
-        <v>26</v>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$72,Zusatz!A7,'Raphael Bolliger'!$C$4:$C$72)</f>
+        <v>24</v>
       </c>
       <c r="E7" s="17">
         <f ca="1">SUM(D$2:D7)</f>
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F7" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A7,'Andreas Lüscher'!$C$4:$C$83)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$75,A7,'Andreas Lüscher'!$C$4:$C$75)</f>
         <v>12</v>
       </c>
       <c r="G7" s="17">
@@ -6745,26 +6779,26 @@
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="34">
         <v>45</v>
       </c>
       <c r="B8" s="14">
         <v>16</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="31">
         <f>SUM(B$2:B8)</f>
         <v>104</v>
       </c>
       <c r="D8" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A8,'Raphael Bolliger'!$C$4:$C$75)</f>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$72,Zusatz!A8,'Raphael Bolliger'!$C$4:$C$72)</f>
         <v>9</v>
       </c>
       <c r="E8" s="17">
         <f ca="1">SUM(D$2:D8)</f>
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F8" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A8,'Andreas Lüscher'!$C$4:$C$83)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$75,A8,'Andreas Lüscher'!$C$4:$C$75)</f>
         <v>10</v>
       </c>
       <c r="G8" s="17">
@@ -6776,26 +6810,26 @@
       <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="34">
         <v>46</v>
       </c>
       <c r="B9" s="14">
         <v>16</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="31">
         <f>SUM(B$2:B9)</f>
         <v>120</v>
       </c>
       <c r="D9" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A9,'Raphael Bolliger'!$C$4:$C$75)</f>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$72,Zusatz!A9,'Raphael Bolliger'!$C$4:$C$72)</f>
         <v>4</v>
       </c>
       <c r="E9" s="17">
         <f ca="1">SUM(D$2:D9)</f>
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F9" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A9,'Andreas Lüscher'!$C$4:$C$83)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$75,A9,'Andreas Lüscher'!$C$4:$C$75)</f>
         <v>7</v>
       </c>
       <c r="G9" s="17">
@@ -6807,26 +6841,26 @@
       <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="34">
         <v>47</v>
       </c>
       <c r="B10" s="14">
         <v>16</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="31">
         <f>SUM(B$2:B10)</f>
         <v>136</v>
       </c>
       <c r="D10" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A10,'Raphael Bolliger'!$C$4:$C$75)</f>
-        <v>12</v>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$72,Zusatz!A10,'Raphael Bolliger'!$C$4:$C$72)</f>
+        <v>10</v>
       </c>
       <c r="E10" s="17">
         <f ca="1">SUM(D$2:D10)</f>
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F10" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A10,'Andreas Lüscher'!$C$4:$C$83)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$75,A10,'Andreas Lüscher'!$C$4:$C$75)</f>
         <v>25</v>
       </c>
       <c r="G10" s="17">
@@ -6838,26 +6872,26 @@
       <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="34">
         <v>48</v>
       </c>
       <c r="B11" s="14">
         <v>16</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="31">
         <f>SUM(B$2:B11)</f>
         <v>152</v>
       </c>
       <c r="D11" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A11,'Raphael Bolliger'!$C$4:$C$75)</f>
-        <v>25</v>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$72,Zusatz!A11,'Raphael Bolliger'!$C$4:$C$72)</f>
+        <v>20</v>
       </c>
       <c r="E11" s="17">
         <f ca="1">SUM(D$2:D11)</f>
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="F11" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A11,'Andreas Lüscher'!$C$4:$C$83)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$75,A11,'Andreas Lüscher'!$C$4:$C$75)</f>
         <v>15</v>
       </c>
       <c r="G11" s="17">
@@ -6869,26 +6903,26 @@
       <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="34">
         <v>49</v>
       </c>
       <c r="B12" s="14">
         <v>16</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="31">
         <f>SUM(B$2:B12)</f>
         <v>168</v>
       </c>
       <c r="D12" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A12,'Raphael Bolliger'!$C$4:$C$75)</f>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$72,Zusatz!A12,'Raphael Bolliger'!$C$4:$C$72)</f>
         <v>24</v>
       </c>
       <c r="E12" s="17">
         <f ca="1">SUM(D$2:D12)</f>
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="F12" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A12,'Andreas Lüscher'!$C$4:$C$83)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$75,A12,'Andreas Lüscher'!$C$4:$C$75)</f>
         <v>7</v>
       </c>
       <c r="G12" s="17">
@@ -6900,26 +6934,26 @@
       <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="A13" s="34">
         <v>50</v>
       </c>
       <c r="B13" s="14">
         <v>16</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="31">
         <f>SUM(B$2:B13)</f>
         <v>184</v>
       </c>
       <c r="D13" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A13,'Raphael Bolliger'!$C$4:$C$75)</f>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$72,Zusatz!A13,'Raphael Bolliger'!$C$4:$C$72)</f>
         <v>17</v>
       </c>
       <c r="E13" s="17">
         <f ca="1">SUM(D$2:D13)</f>
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="F13" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A13,'Andreas Lüscher'!$C$4:$C$83)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$75,A13,'Andreas Lüscher'!$C$4:$C$75)</f>
         <v>9</v>
       </c>
       <c r="G13" s="17">
@@ -6931,26 +6965,26 @@
       <c r="J13" s="17"/>
     </row>
     <row r="14" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="34">
         <v>51</v>
       </c>
       <c r="B14" s="14">
         <v>16</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="31">
         <f>SUM(B$2:B14)</f>
         <v>200</v>
       </c>
       <c r="D14" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A14,'Raphael Bolliger'!$C$4:$C$75)</f>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$72,Zusatz!A14,'Raphael Bolliger'!$C$4:$C$72)</f>
         <v>13</v>
       </c>
       <c r="E14" s="17">
         <f ca="1">SUM(D$2:D14)</f>
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="F14" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A14,'Andreas Lüscher'!$C$4:$C$83)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$75,A14,'Andreas Lüscher'!$C$4:$C$75)</f>
         <v>27</v>
       </c>
       <c r="G14" s="17">
@@ -6962,26 +6996,26 @@
       <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+      <c r="A15" s="34">
         <v>52</v>
       </c>
       <c r="B15" s="14">
         <v>0</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="31">
         <f>SUM(B$2:B15)</f>
         <v>200</v>
       </c>
       <c r="D15" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A15,'Raphael Bolliger'!$C$4:$C$75)</f>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$72,Zusatz!A15,'Raphael Bolliger'!$C$4:$C$72)</f>
         <v>8</v>
       </c>
       <c r="E15" s="17">
         <f ca="1">SUM(D$2:D15)</f>
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F15" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A15,'Andreas Lüscher'!$C$4:$C$83)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$75,A15,'Andreas Lüscher'!$C$4:$C$75)</f>
         <v>4</v>
       </c>
       <c r="G15" s="17">
@@ -6993,26 +7027,26 @@
       <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+      <c r="A16" s="34">
         <v>1</v>
       </c>
       <c r="B16" s="14">
         <v>0</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="31">
         <f>SUM(B$2:B16)</f>
         <v>200</v>
       </c>
       <c r="D16" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A16,'Raphael Bolliger'!$C$4:$C$75)</f>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$72,Zusatz!A16,'Raphael Bolliger'!$C$4:$C$72)</f>
         <v>0</v>
       </c>
       <c r="E16" s="17">
         <f ca="1">SUM(D$2:D16)</f>
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F16" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A16,'Andreas Lüscher'!$C$4:$C$83)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$75,A16,'Andreas Lüscher'!$C$4:$C$75)</f>
         <v>6</v>
       </c>
       <c r="G16" s="17">
@@ -7024,26 +7058,26 @@
       <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
+      <c r="A17" s="34">
         <v>2</v>
       </c>
       <c r="B17" s="14">
         <v>16</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="31">
         <f>SUM(B$2:B17)</f>
         <v>216</v>
       </c>
       <c r="D17" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A17,'Raphael Bolliger'!$C$4:$C$75)</f>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$72,Zusatz!A17,'Raphael Bolliger'!$C$4:$C$72)</f>
         <v>0</v>
       </c>
       <c r="E17" s="17">
         <f ca="1">SUM(D$2:D17)</f>
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F17" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A17,'Andreas Lüscher'!$C$4:$C$83)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$75,A17,'Andreas Lüscher'!$C$4:$C$75)</f>
         <v>20</v>
       </c>
       <c r="G17" s="17">
@@ -7055,26 +7089,26 @@
       <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+      <c r="A18" s="34">
         <v>3</v>
       </c>
       <c r="B18" s="14">
         <v>16</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="31">
         <f>SUM(B$2:B18)</f>
         <v>232</v>
       </c>
       <c r="D18" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A18,'Raphael Bolliger'!$C$4:$C$75)</f>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$72,Zusatz!A18,'Raphael Bolliger'!$C$4:$C$72)</f>
         <v>1</v>
       </c>
       <c r="E18" s="17">
         <f ca="1">SUM(D$2:D18)</f>
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="F18" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A18,'Andreas Lüscher'!$C$4:$C$83)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$75,A18,'Andreas Lüscher'!$C$4:$C$75)</f>
         <v>16</v>
       </c>
       <c r="G18" s="17">
@@ -7086,26 +7120,26 @@
       <c r="J18" s="17"/>
     </row>
     <row r="19" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+      <c r="A19" s="34">
         <v>4</v>
       </c>
       <c r="B19" s="14">
         <v>16</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="31">
         <f>SUM(B$2:B19)</f>
         <v>248</v>
       </c>
       <c r="D19" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A19,'Raphael Bolliger'!$C$4:$C$75)</f>
-        <v>24</v>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$72,Zusatz!A19,'Raphael Bolliger'!$C$4:$C$72)</f>
+        <v>22</v>
       </c>
       <c r="E19" s="17">
         <f ca="1">SUM(D$2:D19)</f>
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="F19" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A19,'Andreas Lüscher'!$C$4:$C$83)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$75,A19,'Andreas Lüscher'!$C$4:$C$75)</f>
         <v>12</v>
       </c>
       <c r="G19" s="17">
@@ -7117,26 +7151,26 @@
       <c r="J19" s="17"/>
     </row>
     <row r="20" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+      <c r="A20" s="34">
         <v>5</v>
       </c>
       <c r="B20" s="14">
         <v>16</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="31">
         <f>SUM(B$2:B20)</f>
         <v>264</v>
       </c>
       <c r="D20" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A20,'Raphael Bolliger'!$C$4:$C$75)</f>
-        <v>18</v>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$72,Zusatz!A20,'Raphael Bolliger'!$C$4:$C$72)</f>
+        <v>13</v>
       </c>
       <c r="E20" s="17">
         <f ca="1">SUM(D$2:D20)</f>
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="F20" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A20,'Andreas Lüscher'!$C$4:$C$83)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$75,A20,'Andreas Lüscher'!$C$4:$C$75)</f>
         <v>22</v>
       </c>
       <c r="G20" s="17">
@@ -7148,26 +7182,26 @@
       <c r="J20" s="17"/>
     </row>
     <row r="21" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
+      <c r="A21" s="34">
         <v>6</v>
       </c>
       <c r="B21" s="14">
         <v>16</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="31">
         <f>SUM(B$2:B21)</f>
         <v>280</v>
       </c>
       <c r="D21" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A21,'Raphael Bolliger'!$C$4:$C$75)</f>
-        <v>19</v>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$72,Zusatz!A21,'Raphael Bolliger'!$C$4:$C$72)</f>
+        <v>16</v>
       </c>
       <c r="E21" s="17">
         <f ca="1">SUM(D$2:D21)</f>
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="F21" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A21,'Andreas Lüscher'!$C$4:$C$83)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$75,A21,'Andreas Lüscher'!$C$4:$C$75)</f>
         <v>14</v>
       </c>
       <c r="G21" s="17">
@@ -7179,26 +7213,26 @@
       <c r="J21" s="17"/>
     </row>
     <row r="22" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
+      <c r="A22" s="34">
         <v>7</v>
       </c>
       <c r="B22" s="14">
         <v>16</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="31">
         <f>SUM(B$2:B22)</f>
         <v>296</v>
       </c>
       <c r="D22" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A22,'Raphael Bolliger'!$C$4:$C$75)</f>
-        <v>32</v>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$72,Zusatz!A22,'Raphael Bolliger'!$C$4:$C$72)</f>
+        <v>28</v>
       </c>
       <c r="E22" s="17">
         <f ca="1">SUM(D$2:D22)</f>
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="F22" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A22,'Andreas Lüscher'!$C$4:$C$83)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$75,A22,'Andreas Lüscher'!$C$4:$C$75)</f>
         <v>24</v>
       </c>
       <c r="G22" s="17">
@@ -7210,26 +7244,26 @@
       <c r="J22" s="17"/>
     </row>
     <row r="23" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
+      <c r="A23" s="34">
         <v>8</v>
       </c>
       <c r="B23" s="14">
         <v>16</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="31">
         <f>SUM(B$2:B23)</f>
         <v>312</v>
       </c>
       <c r="D23" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A23,'Raphael Bolliger'!$C$4:$C$75)</f>
-        <v>44</v>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$72,Zusatz!A23,'Raphael Bolliger'!$C$4:$C$72)</f>
+        <v>40</v>
       </c>
       <c r="E23" s="17">
         <f ca="1">SUM(D$2:D23)</f>
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="F23" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A23,'Andreas Lüscher'!$C$4:$C$83)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$75,A23,'Andreas Lüscher'!$C$4:$C$75)</f>
         <v>14</v>
       </c>
       <c r="G23" s="17">
@@ -7241,26 +7275,26 @@
       <c r="J23" s="17"/>
     </row>
     <row r="24" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
+      <c r="A24" s="34">
         <v>9</v>
       </c>
       <c r="B24" s="14">
         <v>16</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="31">
         <f>SUM(B$2:B24)</f>
         <v>328</v>
       </c>
       <c r="D24" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A24,'Raphael Bolliger'!$C$4:$C$75)</f>
-        <v>53</v>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$72,Zusatz!A24,'Raphael Bolliger'!$C$4:$C$72)</f>
+        <v>46</v>
       </c>
       <c r="E24" s="17">
         <f ca="1">SUM(D$2:D24)</f>
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="F24" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A24,'Andreas Lüscher'!$C$4:$C$83)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$75,A24,'Andreas Lüscher'!$C$4:$C$75)</f>
         <v>41</v>
       </c>
       <c r="G24" s="17">
@@ -7272,26 +7306,26 @@
       <c r="J24" s="17"/>
     </row>
     <row r="25" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+      <c r="A25" s="34">
         <v>10</v>
       </c>
       <c r="B25" s="14">
         <v>16</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="31">
         <f>SUM(B$2:B25)</f>
         <v>344</v>
       </c>
       <c r="D25" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A25,'Raphael Bolliger'!$C$4:$C$75)</f>
-        <v>18</v>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$72,Zusatz!A25,'Raphael Bolliger'!$C$4:$C$72)</f>
+        <v>26</v>
       </c>
       <c r="E25" s="17">
         <f ca="1">SUM(D$2:D25)</f>
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="F25" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A25,'Andreas Lüscher'!$C$4:$C$83)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$75,A25,'Andreas Lüscher'!$C$4:$C$75)</f>
         <v>19</v>
       </c>
       <c r="G25" s="17">
@@ -7303,26 +7337,26 @@
       <c r="J25" s="17"/>
     </row>
     <row r="26" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
+      <c r="A26" s="34">
         <v>11</v>
       </c>
       <c r="B26" s="14">
         <v>16</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="31">
         <f>SUM(B$2:B26)</f>
         <v>360</v>
       </c>
       <c r="D26" s="17">
-        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$75,Zusatz!A26,'Raphael Bolliger'!$C$4:$C$75)</f>
-        <v>0</v>
+        <f ca="1">SUMIF('Raphael Bolliger'!$A$4:$C$72,Zusatz!A26,'Raphael Bolliger'!$C$4:$C$72)</f>
+        <v>9</v>
       </c>
       <c r="E26" s="17">
         <f ca="1">SUM(D$2:D26)</f>
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="F26" s="17">
-        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$83,A26,'Andreas Lüscher'!$C$4:$C$83)</f>
+        <f ca="1">SUMIF('Andreas Lüscher'!$A$4:$C$75,A26,'Andreas Lüscher'!$C$4:$C$75)</f>
         <v>8</v>
       </c>
       <c r="G26" s="17">
@@ -7332,6 +7366,29 @@
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="35">
+        <v>12</v>
+      </c>
+      <c r="B27" s="29">
+        <v>0</v>
+      </c>
+      <c r="C27" s="32">
+        <v>360</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
